--- a/pachong_pc/result.xlsx
+++ b/pachong_pc/result.xlsx
@@ -1,49 +1,958 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8505" windowWidth="16155" xWindow="240" yWindow="120"/>
+    <workbookView windowWidth="24345" windowHeight="12615"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="145621" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="190">
+  <si>
+    <t>http://118.25.173.30:9000/feedback/item/365</t>
+  </si>
+  <si>
+    <t>18336387017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.41-000764 </t>
+  </si>
+  <si>
+    <t>尽管还没登过 就显示登录超限</t>
+  </si>
+  <si>
+    <t>http://118.25.173.30:9000/feedback/item/381</t>
+  </si>
+  <si>
+    <t>13293940051</t>
+  </si>
+  <si>
+    <t>学生报名参加，无法上传学生会照片</t>
+  </si>
+  <si>
+    <t>http://118.25.173.30:9000/feedback/item/396</t>
+  </si>
+  <si>
+    <t>13696990838</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.41-000735 </t>
+  </si>
+  <si>
+    <t>更新后提示当前账号无法交易</t>
+  </si>
+  <si>
+    <t>http://118.25.173.30:9000/feedback/item/397</t>
+  </si>
+  <si>
+    <t>15342206948</t>
+  </si>
+  <si>
+    <t>价格预警和行情登录，在客户登录交易帐户后没必要再设置帐号，密码，过于繁锁，客户使用不便，建议尽快取消，谢谢！</t>
+  </si>
+  <si>
+    <t>http://118.25.173.30:9000/feedback/item/398</t>
+  </si>
+  <si>
+    <t>13858999986</t>
+  </si>
+  <si>
+    <t>夜盘资金怎么转不出？</t>
+  </si>
+  <si>
+    <t>http://118.25.173.30:9000/feedback/item/401</t>
+  </si>
+  <si>
+    <t>18206828981</t>
+  </si>
+  <si>
+    <t>整个使用效果不是很好，包括界面，功能，人性化等，就算比不了随身行，应该参考下华安的app</t>
+  </si>
+  <si>
+    <t>http://118.25.173.30:9000/feedback/item/404</t>
+  </si>
+  <si>
+    <t>17629345872</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.42-000764 </t>
+  </si>
+  <si>
+    <t>为啥登录不上</t>
+  </si>
+  <si>
+    <t>http://118.25.173.30:9000/feedback/item/408</t>
+  </si>
+  <si>
+    <t>18864659350</t>
+  </si>
+  <si>
+    <t>交易登录我登不上去为啥？？？</t>
+  </si>
+  <si>
+    <t>http://118.25.173.30:9000/feedback/item/409</t>
+  </si>
+  <si>
+    <t>18637164791</t>
+  </si>
+  <si>
+    <t>总是登陆不上</t>
+  </si>
+  <si>
+    <t>http://118.25.173.30:9000/feedback/item/410</t>
+  </si>
+  <si>
+    <t>18755899984</t>
+  </si>
+  <si>
+    <t>登录不上去</t>
+  </si>
+  <si>
+    <t>http://118.25.173.30:9000/feedback/item/411</t>
+  </si>
+  <si>
+    <t>17335567192</t>
+  </si>
+  <si>
+    <t>卸载了重新安装也不能登录</t>
+  </si>
+  <si>
+    <t>http://118.25.173.30:9000/feedback/item/412</t>
+  </si>
+  <si>
+    <t>18995992382</t>
+  </si>
+  <si>
+    <t>我根本点不了上传照片，点了没动静，这让我怎么报名？？？？？？？？？？来来回回试了好几次，其余都可以，就是添加照片没动静点了</t>
+  </si>
+  <si>
+    <t>http://118.25.173.30:9000/feedback/item/414</t>
+  </si>
+  <si>
+    <t>怎么登陆总有各种各样的问题</t>
+  </si>
+  <si>
+    <t>http://118.25.173.30:9000/feedback/item/418</t>
+  </si>
+  <si>
+    <t>17701676169</t>
+  </si>
+  <si>
+    <t>忘记交易密码怎么办</t>
+  </si>
+  <si>
+    <t>http://118.25.173.30:9000/feedback/item/422</t>
+  </si>
+  <si>
+    <t>13839363078</t>
+  </si>
+  <si>
+    <t>老是显示登录失败，密码没错，账号什么都没错，之前都能登上，今天登不上去了</t>
+  </si>
+  <si>
+    <t>http://118.25.173.30:9000/feedback/item/424</t>
+  </si>
+  <si>
+    <t>17715935548</t>
+  </si>
+  <si>
+    <t>在“常用指标”增加“增减指标”功能，方便根据个人喜好选择指标。</t>
+  </si>
+  <si>
+    <t>http://118.25.173.30:9000/feedback/item/426</t>
+  </si>
+  <si>
+    <t>18090643887</t>
+  </si>
+  <si>
+    <t>你们是否有和一个香港的叫“红蚂蚁证券公司”合作？他们说交易软件是定制贵公司的，软件取名“红蚁”。其缺点太多了1、功能连最基本的都不够（如只有一个KDJ指标），自选品种之间切换必须退出后，再重新进入.......等等等等；2、从打开软件到正常使用的时间至少有20秒以上，且每次登录后都是进入到全部品种，不是自选品种；3、每当切换两到三个品种后要等很长时间（20秒～几分钟），有时必须退出后再重新登录。我也怀疑过不是你们的软件，但用了你们的易星和极星后，发现和你们的软件风格特点又一致，且电脑里的指标还可以复制互相可以使用。如有需要请联系</t>
+  </si>
+  <si>
+    <t>http://118.25.173.30:9000/feedback/item/430</t>
+  </si>
+  <si>
+    <t>13504928469</t>
+  </si>
+  <si>
+    <t>您好，这个软件，感觉k线间距过大，k线本身过于细小。另外不常用的指标如果能够删除感觉软件使用起来会更好一些。</t>
+  </si>
+  <si>
+    <t>http://118.25.173.30:9000/feedback/item/434</t>
+  </si>
+  <si>
+    <t>13083736099</t>
+  </si>
+  <si>
+    <t>升级最新版，有闪退出现</t>
+  </si>
+  <si>
+    <t>http://118.25.173.30:9000/feedback/item/438</t>
+  </si>
+  <si>
+    <t>13501778662</t>
+  </si>
+  <si>
+    <t>希望能够加入像文华wh6那样的套利服务器条件单功能</t>
+  </si>
+  <si>
+    <t>http://118.25.173.30:9000/feedback/item/439</t>
+  </si>
+  <si>
+    <t>最新升级后运行出现 “易星已停止”，但软件可以继续运行，重装也是如此。</t>
+  </si>
+  <si>
+    <t>http://118.25.173.30:9000/feedback/item/446</t>
+  </si>
+  <si>
+    <t>17702727809</t>
+  </si>
+  <si>
+    <t>帅哥们好。在（止损止赢）操作中，以动态追踪为例，现在模式是先触发动态追踪，然后触发下单，触发下单默认是对手价，如果我不选择对手价而自已填写指定价，有可能不能成交，这样把动态追踪的功能丧失了。咱们改一下，上面功能改成动态追踪启动价，由使用者填写具体价格，下面功能改成回撤点数，这样，当价格到了使用者的价位后，启动动态追踪，达到设定的回撤点数后，执行成交，这样就可以发挥动态追踪的优势了，止赢也这样考虑一下。。</t>
+  </si>
+  <si>
+    <t>http://118.25.173.30:9000/feedback/item/447</t>
+  </si>
+  <si>
+    <t>动态追踪建议</t>
+  </si>
+  <si>
+    <t>http://118.25.173.30:9000/feedback/item/450</t>
+  </si>
+  <si>
+    <t>15954478752</t>
+  </si>
+  <si>
+    <t>后台没法显示，切换了别的程序，再打开需要重新进程序</t>
+  </si>
+  <si>
+    <t>http://118.25.173.30:9000/feedback/item/451</t>
+  </si>
+  <si>
+    <t>和皮肤没有关系了，白色也是退退退</t>
+  </si>
+  <si>
+    <t>http://118.25.173.30:9000/feedback/item/452</t>
+  </si>
+  <si>
+    <t>15355818787</t>
+  </si>
+  <si>
+    <t>请问，资金密码忘记了怎么怎么改</t>
+  </si>
+  <si>
+    <t>http://118.25.173.30:9000/feedback/item/453</t>
+  </si>
+  <si>
+    <t>13995105117</t>
+  </si>
+  <si>
+    <t>有超价点数设置，但是默认价格类型中却没有超价</t>
+  </si>
+  <si>
+    <t>http://118.25.173.30:9000/feedback/item/454</t>
+  </si>
+  <si>
+    <t>易星在后台一会，然后就下不了单了，无反应，刷新也不行，要重启，重启后一会也会这样，以前没有出现过</t>
+  </si>
+  <si>
+    <t>http://118.25.173.30:9000/feedback/item/455</t>
+  </si>
+  <si>
+    <t>又失灵了，这次直接一直盯着，然后下单时就没反应</t>
+  </si>
+  <si>
+    <t>http://118.25.173.30:9000/feedback/item/459</t>
+  </si>
+  <si>
+    <t>13509759285</t>
+  </si>
+  <si>
+    <t>这个新版本很不稳定啊，只要出来这个界面，再点就闪退，需要重新登录</t>
+  </si>
+  <si>
+    <t>http://118.25.173.30:9000/feedback/item/462</t>
+  </si>
+  <si>
+    <t>手机版登录交易后，切入其它软件后易星就退出，不方便操盘，望尽快实现另星登录交易后，保持交易状态，方便客户操盘，谢谢！</t>
+  </si>
+  <si>
+    <t>http://118.25.173.30:9000/feedback/item/466</t>
+  </si>
+  <si>
+    <t>15396008859</t>
+  </si>
+  <si>
+    <t>今天交易的数据都显示不了，为什么？</t>
+  </si>
+  <si>
+    <t>http://118.25.173.30:9000/feedback/item/467</t>
+  </si>
+  <si>
+    <t>建议挂单尽快增设提示，方便客户操盘，谢谢！</t>
+  </si>
+  <si>
+    <t>http://118.25.173.30:9000/feedback/item/468</t>
+  </si>
+  <si>
+    <t>13439517039</t>
+  </si>
+  <si>
+    <t>你这个指标怎么切换啊我不要Ema我想用ma这个指标怎么切换</t>
+  </si>
+  <si>
+    <t>http://118.25.173.30:9000/feedback/item/470</t>
+  </si>
+  <si>
+    <t>建议客户已挂单，尽快在"挂单"右上角显示红点，以示提醒，方便客户操盘，谢谢！</t>
+  </si>
+  <si>
+    <t>http://118.25.173.30:9000/feedback/item/471</t>
+  </si>
+  <si>
+    <t>18123820903</t>
+  </si>
+  <si>
+    <t>每当查看15分钟k线图的时候，背景底图的白色虚线(横 竖线)太过亮，以至于影响辨别其他均线和k线的形态。强烈建议将这个白色虚线调低亮度，尽可能不影响查看行情。感谢优化</t>
+  </si>
+  <si>
+    <t>http://118.25.173.30:9000/feedback/item/476</t>
+  </si>
+  <si>
+    <t>看分时图，双击下方区域后，出现如图所示的nan什么，正常吗？</t>
+  </si>
+  <si>
+    <t>http://118.25.173.30:9000/feedback/item/480</t>
+  </si>
+  <si>
+    <t>如图，我设定画线下单，却提示。为何失败？</t>
+  </si>
+  <si>
+    <t>http://118.25.173.30:9000/feedback/item/481</t>
+  </si>
+  <si>
+    <t>13252920279</t>
+  </si>
+  <si>
+    <t>提示退出</t>
+  </si>
+  <si>
+    <t>http://118.25.173.30:9000/feedback/item/482</t>
+  </si>
+  <si>
+    <t>111111111111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.42-000735 </t>
+  </si>
+  <si>
+    <t>测试数据</t>
+  </si>
+  <si>
+    <t>http://118.25.173.30:9000/feedback/item/483</t>
+  </si>
+  <si>
+    <t>18653238062</t>
+  </si>
+  <si>
+    <t>手机回到桌面再打开，打不开，需要重新登录，很费时间，之前没有遇到此情况，自从更新后就出现该情况，请后台予以支持。</t>
+  </si>
+  <si>
+    <t>http://118.25.173.30:9000/feedback/item/493</t>
+  </si>
+  <si>
+    <t>17502307371</t>
+  </si>
+  <si>
+    <t>怎么有时候登录不了。</t>
+  </si>
+  <si>
+    <t>http://118.25.173.30:9000/feedback/item/494</t>
+  </si>
+  <si>
+    <t>15236252680</t>
+  </si>
+  <si>
+    <t>点击平仓键不能用，显示为先开先平，不知怎么回事</t>
+  </si>
+  <si>
+    <t>http://118.25.173.30:9000/feedback/item/499</t>
+  </si>
+  <si>
+    <t>15936568829</t>
+  </si>
+  <si>
+    <t>加载不出来资讯</t>
+  </si>
+  <si>
+    <t>http://118.25.173.30:9000/feedback/item/500</t>
+  </si>
+  <si>
+    <t>13148894466</t>
+  </si>
+  <si>
+    <t>这个期权自对冲单是什么？无法撤掉。</t>
+  </si>
+  <si>
+    <t>http://118.25.173.30:9000/feedback/item/503</t>
+  </si>
+  <si>
+    <t>15689063123</t>
+  </si>
+  <si>
+    <t>我每天都交易，账单里面怎么不显示呢</t>
+  </si>
+  <si>
+    <t>http://118.25.173.30:9000/feedback/item/514</t>
+  </si>
+  <si>
+    <t>15296403044</t>
+  </si>
+  <si>
+    <t>请问一下模拟交易的登录账号忘记了，怎麽进行找回，谢谢</t>
+  </si>
+  <si>
+    <t>http://118.25.173.30:9000/feedback/item/518</t>
+  </si>
+  <si>
+    <t>周末或者不在开盘时间登录不了。怎么回事啊</t>
+  </si>
+  <si>
+    <t>http://118.25.173.30:9000/feedback/item/519</t>
+  </si>
+  <si>
+    <t>13154129635</t>
+  </si>
+  <si>
+    <t>账户无法登陆</t>
+  </si>
+  <si>
+    <t>http://118.25.173.30:9000/feedback/item/523</t>
+  </si>
+  <si>
+    <t>13403459815</t>
+  </si>
+  <si>
+    <t>交易连接断开 登陆不了</t>
+  </si>
+  <si>
+    <t>http://118.25.173.30:9000/feedback/item/530</t>
+  </si>
+  <si>
+    <t>18842532375</t>
+  </si>
+  <si>
+    <t>我明明赚了12000，为什么总金额变少了？手续费百分之10？</t>
+  </si>
+  <si>
+    <t>http://118.25.173.30:9000/feedback/item/533</t>
+  </si>
+  <si>
+    <t>15617595201</t>
+  </si>
+  <si>
+    <t>关于大赛怎能显示不出来，其他的都可以</t>
+  </si>
+  <si>
+    <t>http://118.25.173.30:9000/feedback/item/538</t>
+  </si>
+  <si>
+    <t>15221944218</t>
+  </si>
+  <si>
+    <t>http://118.25.173.30:9000/feedback/item/540</t>
+  </si>
+  <si>
+    <t>18100336420</t>
+  </si>
+  <si>
+    <t>密码修改手机接不到验证码</t>
+  </si>
+  <si>
+    <t>http://118.25.173.30:9000/feedback/item/543</t>
+  </si>
+  <si>
+    <t>APP的止盈止损价不能输入市价，望尽快改进，方便客户操盘，谢谢！</t>
+  </si>
+  <si>
+    <t>http://118.25.173.30:9000/feedback/item/546</t>
+  </si>
+  <si>
+    <t>怎么又错了啊，昨天就是这样，赚了给算亏了</t>
+  </si>
+  <si>
+    <t>http://118.25.173.30:9000/feedback/item/547</t>
+  </si>
+  <si>
+    <t>http://118.25.173.30:9000/feedback/item/548</t>
+  </si>
+  <si>
+    <t>http://118.25.173.30:9000/feedback/item/549</t>
+  </si>
+  <si>
+    <t>怎么会亏钱呢？我这边是盈利的啊，手续费难道百分之20嘛？</t>
+  </si>
+  <si>
+    <t>http://118.25.173.30:9000/feedback/item/555</t>
+  </si>
+  <si>
+    <t>17305018351</t>
+  </si>
+  <si>
+    <t>模拟大赛的密码错误要在哪里进行修改？</t>
+  </si>
+  <si>
+    <t>http://118.25.173.30:9000/feedback/item/556</t>
+  </si>
+  <si>
+    <t>忘记密码，需要验证码也一直没发到手机上，重新注册已经显示注册过啦。</t>
+  </si>
+  <si>
+    <t>http://118.25.173.30:9000/feedback/item/557</t>
+  </si>
+  <si>
+    <t>13801046432</t>
+  </si>
+  <si>
+    <t>资金密码错误如何处理？</t>
+  </si>
+  <si>
+    <t>http://118.25.173.30:9000/feedback/item/558</t>
+  </si>
+  <si>
+    <t>15993300770</t>
+  </si>
+  <si>
+    <t>登陆不上</t>
+  </si>
+  <si>
+    <t>http://118.25.173.30:9000/feedback/item/559</t>
+  </si>
+  <si>
+    <t>15521156726</t>
+  </si>
+  <si>
+    <t>账户净值不对，莫名其妙扣了我十万多，查一下交易记录</t>
+  </si>
+  <si>
+    <t>http://118.25.173.30:9000/feedback/item/561</t>
+  </si>
+  <si>
+    <t>17702727808</t>
+  </si>
+  <si>
+    <t>能不能加上止损开仓功能</t>
+  </si>
+  <si>
+    <t>http://118.25.173.30:9000/feedback/item/570</t>
+  </si>
+  <si>
+    <t>15360167840</t>
+  </si>
+  <si>
+    <t>经常卡死</t>
+  </si>
+  <si>
+    <t>http://118.25.173.30:9000/feedback/item/571</t>
+  </si>
+  <si>
+    <t>就是停留在行情页面上，不操作，看行情变化情况。过一会儿就卡了。要退出重新登陆才行。</t>
+  </si>
+  <si>
+    <t>http://118.25.173.30:9000/feedback/item/572</t>
+  </si>
+  <si>
+    <t>13525590050</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1.43-000735 </t>
+  </si>
+  <si>
+    <t>有的品种有总买卖数值，有的没有这个是什么情况呢</t>
+  </si>
+  <si>
+    <t>http://118.25.173.30:9000/feedback/item/575</t>
+  </si>
+  <si>
+    <t>15737051610</t>
+  </si>
+  <si>
+    <t>无法登陆</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <family val="2"/>
-      <sz val="9"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill/>
+  <fills count="33">
+    <fill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -51,21 +960,316 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0">
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" name="常规" xfId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -350,89 +1554,1236 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="4.375" customWidth="1"/>
+    <col min="2" max="2" width="48.25" customWidth="1"/>
+    <col min="3" max="3" width="13.75" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="0" t="n">
+    <row r="1" spans="1:5">
+      <c r="A1">
+        <v>365</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2">
         <v>381</v>
       </c>
-      <c r="B1" s="0" t="inlineStr">
-        <is>
-          <t>http://118.25.173.30:9000/feedback/item/381</t>
-        </is>
-      </c>
-      <c r="C1" s="0" t="inlineStr">
-        <is>
-          <t>13293940051</t>
-        </is>
-      </c>
-      <c r="D1" s="0" t="inlineStr">
-        <is>
-          <t xml:space="preserve">2.1.41-000764 </t>
-        </is>
-      </c>
-      <c r="E1" s="0" t="inlineStr">
-        <is>
-          <t>学生报名参加，无法上传学生会照片</t>
-        </is>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3">
+        <v>396</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4">
+        <v>397</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5">
+        <v>398</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6">
+        <v>401</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7">
+        <v>404</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8">
+        <v>408</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9">
+        <v>409</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10">
+        <v>410</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11">
+        <v>411</v>
+      </c>
+      <c r="B11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12">
+        <v>412</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13">
+        <v>414</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14">
+        <v>418</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15">
+        <v>422</v>
+      </c>
+      <c r="B15" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16">
+        <v>424</v>
+      </c>
+      <c r="B16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" t="s">
+        <v>48</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>426</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>430</v>
+      </c>
+      <c r="B18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>434</v>
+      </c>
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>438</v>
+      </c>
+      <c r="B20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" t="s">
+        <v>9</v>
+      </c>
+      <c r="E20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>439</v>
+      </c>
+      <c r="B21" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>446</v>
+      </c>
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" t="s">
+        <v>9</v>
+      </c>
+      <c r="E22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>447</v>
+      </c>
+      <c r="B23" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" t="s">
+        <v>9</v>
+      </c>
+      <c r="E23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>450</v>
+      </c>
+      <c r="B24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D24" t="s">
+        <v>9</v>
+      </c>
+      <c r="E24" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>451</v>
+      </c>
+      <c r="B25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" t="s">
+        <v>57</v>
+      </c>
+      <c r="D25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>452</v>
+      </c>
+      <c r="B26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C26" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>453</v>
+      </c>
+      <c r="B27" t="s">
+        <v>77</v>
+      </c>
+      <c r="C27" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E27" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>454</v>
+      </c>
+      <c r="B28" t="s">
+        <v>80</v>
+      </c>
+      <c r="C28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" t="s">
+        <v>9</v>
+      </c>
+      <c r="E28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>455</v>
+      </c>
+      <c r="B29" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" t="s">
+        <v>18</v>
+      </c>
+      <c r="D29" t="s">
+        <v>9</v>
+      </c>
+      <c r="E29" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>459</v>
+      </c>
+      <c r="B30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>462</v>
+      </c>
+      <c r="B31" t="s">
+        <v>87</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>466</v>
+      </c>
+      <c r="B32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" t="s">
+        <v>90</v>
+      </c>
+      <c r="D32" t="s">
+        <v>9</v>
+      </c>
+      <c r="E32" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>467</v>
+      </c>
+      <c r="B33" t="s">
+        <v>92</v>
+      </c>
+      <c r="C33" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" t="s">
+        <v>9</v>
+      </c>
+      <c r="E33" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>468</v>
+      </c>
+      <c r="B34" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" t="s">
+        <v>95</v>
+      </c>
+      <c r="D34" t="s">
+        <v>9</v>
+      </c>
+      <c r="E34" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>470</v>
+      </c>
+      <c r="B35" t="s">
+        <v>97</v>
+      </c>
+      <c r="C35" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" t="s">
+        <v>9</v>
+      </c>
+      <c r="E35" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>471</v>
+      </c>
+      <c r="B36" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" t="s">
+        <v>100</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>476</v>
+      </c>
+      <c r="B37" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" t="s">
+        <v>100</v>
+      </c>
+      <c r="D37" t="s">
+        <v>9</v>
+      </c>
+      <c r="E37" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>480</v>
+      </c>
+      <c r="B38" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" t="s">
+        <v>100</v>
+      </c>
+      <c r="D38" t="s">
+        <v>9</v>
+      </c>
+      <c r="E38" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>481</v>
+      </c>
+      <c r="B39" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" t="s">
+        <v>107</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+      <c r="E39" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>482</v>
+      </c>
+      <c r="B40" t="s">
+        <v>109</v>
+      </c>
+      <c r="C40" t="s">
+        <v>110</v>
+      </c>
+      <c r="D40" t="s">
+        <v>111</v>
+      </c>
+      <c r="E40" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>483</v>
+      </c>
+      <c r="B41" t="s">
+        <v>113</v>
+      </c>
+      <c r="C41" t="s">
+        <v>114</v>
+      </c>
+      <c r="D41" t="s">
+        <v>9</v>
+      </c>
+      <c r="E41" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>493</v>
+      </c>
+      <c r="B42" t="s">
+        <v>116</v>
+      </c>
+      <c r="C42" t="s">
+        <v>117</v>
+      </c>
+      <c r="D42" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>494</v>
+      </c>
+      <c r="B43" t="s">
+        <v>119</v>
+      </c>
+      <c r="C43" t="s">
+        <v>120</v>
+      </c>
+      <c r="D43" t="s">
+        <v>111</v>
+      </c>
+      <c r="E43" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>499</v>
+      </c>
+      <c r="B44" t="s">
+        <v>122</v>
+      </c>
+      <c r="C44" t="s">
+        <v>123</v>
+      </c>
+      <c r="D44" t="s">
+        <v>22</v>
+      </c>
+      <c r="E44" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>500</v>
+      </c>
+      <c r="B45" t="s">
+        <v>125</v>
+      </c>
+      <c r="C45" t="s">
+        <v>126</v>
+      </c>
+      <c r="D45" t="s">
+        <v>111</v>
+      </c>
+      <c r="E45" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>503</v>
+      </c>
+      <c r="B46" t="s">
+        <v>128</v>
+      </c>
+      <c r="C46" t="s">
+        <v>129</v>
+      </c>
+      <c r="D46" t="s">
+        <v>9</v>
+      </c>
+      <c r="E46" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>514</v>
+      </c>
+      <c r="B47" t="s">
+        <v>131</v>
+      </c>
+      <c r="C47" t="s">
+        <v>132</v>
+      </c>
+      <c r="D47" t="s">
+        <v>22</v>
+      </c>
+      <c r="E47" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>518</v>
+      </c>
+      <c r="B48" t="s">
+        <v>134</v>
+      </c>
+      <c r="C48" t="s">
+        <v>117</v>
+      </c>
+      <c r="D48" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>519</v>
+      </c>
+      <c r="B49" t="s">
+        <v>136</v>
+      </c>
+      <c r="C49" t="s">
+        <v>137</v>
+      </c>
+      <c r="D49" t="s">
+        <v>111</v>
+      </c>
+      <c r="E49" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>523</v>
+      </c>
+      <c r="B50" t="s">
+        <v>139</v>
+      </c>
+      <c r="C50" t="s">
+        <v>140</v>
+      </c>
+      <c r="D50" t="s">
+        <v>9</v>
+      </c>
+      <c r="E50" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>530</v>
+      </c>
+      <c r="B51" t="s">
+        <v>142</v>
+      </c>
+      <c r="C51" t="s">
+        <v>143</v>
+      </c>
+      <c r="D51" t="s">
+        <v>111</v>
+      </c>
+      <c r="E51" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>533</v>
+      </c>
+      <c r="B52" t="s">
+        <v>145</v>
+      </c>
+      <c r="C52" t="s">
+        <v>146</v>
+      </c>
+      <c r="D52" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>538</v>
+      </c>
+      <c r="B53" t="s">
+        <v>148</v>
+      </c>
+      <c r="C53" t="s">
+        <v>149</v>
+      </c>
+      <c r="D53" t="s">
+        <v>2</v>
+      </c>
+      <c r="E53" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <v>540</v>
+      </c>
+      <c r="B54" t="s">
+        <v>150</v>
+      </c>
+      <c r="C54" t="s">
+        <v>151</v>
+      </c>
+      <c r="D54" t="s">
+        <v>22</v>
+      </c>
+      <c r="E54" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <v>543</v>
+      </c>
+      <c r="B55" t="s">
+        <v>153</v>
+      </c>
+      <c r="C55" t="s">
+        <v>12</v>
+      </c>
+      <c r="D55" t="s">
+        <v>111</v>
+      </c>
+      <c r="E55" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56">
+        <v>546</v>
+      </c>
+      <c r="B56" t="s">
+        <v>155</v>
+      </c>
+      <c r="C56" t="s">
+        <v>143</v>
+      </c>
+      <c r="D56" t="s">
+        <v>111</v>
+      </c>
+      <c r="E56" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>547</v>
+      </c>
+      <c r="B57" t="s">
+        <v>157</v>
+      </c>
+      <c r="C57" t="s">
+        <v>143</v>
+      </c>
+      <c r="D57" t="s">
+        <v>111</v>
+      </c>
+      <c r="E57" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58">
+        <v>548</v>
+      </c>
+      <c r="B58" t="s">
+        <v>158</v>
+      </c>
+      <c r="C58" t="s">
+        <v>143</v>
+      </c>
+      <c r="D58" t="s">
+        <v>111</v>
+      </c>
+      <c r="E58" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59">
+        <v>549</v>
+      </c>
+      <c r="B59" t="s">
+        <v>159</v>
+      </c>
+      <c r="C59" t="s">
+        <v>143</v>
+      </c>
+      <c r="D59" t="s">
+        <v>111</v>
+      </c>
+      <c r="E59" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60">
+        <v>555</v>
+      </c>
+      <c r="B60" t="s">
+        <v>161</v>
+      </c>
+      <c r="C60" t="s">
+        <v>162</v>
+      </c>
+      <c r="D60" t="s">
+        <v>22</v>
+      </c>
+      <c r="E60" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61">
+        <v>556</v>
+      </c>
+      <c r="B61" t="s">
+        <v>164</v>
+      </c>
+      <c r="C61" t="s">
+        <v>162</v>
+      </c>
+      <c r="D61" t="s">
+        <v>22</v>
+      </c>
+      <c r="E61" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62">
+        <v>557</v>
+      </c>
+      <c r="B62" t="s">
+        <v>166</v>
+      </c>
+      <c r="C62" t="s">
+        <v>167</v>
+      </c>
+      <c r="D62" t="s">
+        <v>111</v>
+      </c>
+      <c r="E62" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63">
+        <v>558</v>
+      </c>
+      <c r="B63" t="s">
+        <v>169</v>
+      </c>
+      <c r="C63" t="s">
+        <v>170</v>
+      </c>
+      <c r="D63" t="s">
+        <v>22</v>
+      </c>
+      <c r="E63" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64">
+        <v>559</v>
+      </c>
+      <c r="B64" t="s">
+        <v>172</v>
+      </c>
+      <c r="C64" t="s">
+        <v>173</v>
+      </c>
+      <c r="D64" t="s">
+        <v>9</v>
+      </c>
+      <c r="E64" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65">
+        <v>561</v>
+      </c>
+      <c r="B65" t="s">
+        <v>175</v>
+      </c>
+      <c r="C65" t="s">
+        <v>176</v>
+      </c>
+      <c r="D65" t="s">
+        <v>111</v>
+      </c>
+      <c r="E65" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66">
+        <v>570</v>
+      </c>
+      <c r="B66" t="s">
+        <v>178</v>
+      </c>
+      <c r="C66" t="s">
+        <v>179</v>
+      </c>
+      <c r="D66" t="s">
+        <v>9</v>
+      </c>
+      <c r="E66" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67">
+        <v>571</v>
+      </c>
+      <c r="B67" t="s">
+        <v>181</v>
+      </c>
+      <c r="C67" t="s">
+        <v>179</v>
+      </c>
+      <c r="D67" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68">
+        <v>572</v>
+      </c>
+      <c r="B68" t="s">
+        <v>183</v>
+      </c>
+      <c r="C68" t="s">
+        <v>184</v>
+      </c>
+      <c r="D68" t="s">
+        <v>185</v>
+      </c>
+      <c r="E68" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69">
+        <v>575</v>
+      </c>
+      <c r="B69" t="s">
+        <v>187</v>
+      </c>
+      <c r="C69" t="s">
+        <v>188</v>
+      </c>
+      <c r="D69" t="s">
+        <v>22</v>
+      </c>
+      <c r="E69" t="s">
+        <v>189</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="portrait" paperSize="9"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/pachong_pc/result.xlsx
+++ b/pachong_pc/result.xlsx
@@ -11776,7 +11776,7 @@
     <row r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>650</t>
+          <t>715</t>
         </is>
       </c>
       <c r="B2" s="0" t="inlineStr">
@@ -11786,7 +11786,7 @@
       </c>
       <c r="C2" s="5" t="inlineStr">
         <is>
-          <t>iPhone 6s</t>
+          <t>iPhone X</t>
         </is>
       </c>
       <c r="D2" s="0" t="inlineStr">
@@ -11801,30 +11801,30 @@
       </c>
       <c r="F2" s="0" t="inlineStr">
         <is>
-          <t>2.1.34</t>
+          <t xml:space="preserve">2.1.42-000735 </t>
         </is>
       </c>
       <c r="G2" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/650</t>
+          <t>http://118.25.173.30:9000/feedback/item/715</t>
         </is>
       </c>
       <c r="H2" s="4" t="inlineStr"/>
       <c r="I2" s="0" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="J2" s="0" t="inlineStr">
         <is>
-          <t>BUG</t>
+          <t>手机登入后没有退出放在后台，等过了好几个小时后再打开提示要重新登入，但是怎么登入都显示登入数超限</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
         <is>
-          <t>651</t>
+          <t>716</t>
         </is>
       </c>
       <c r="B3" s="0" t="inlineStr">
@@ -11834,7 +11834,7 @@
       </c>
       <c r="C3" s="0" t="inlineStr">
         <is>
-          <t>SLA-AL00</t>
+          <t>HUAWEI NXT-TL00</t>
         </is>
       </c>
       <c r="D3" s="0" t="inlineStr">
@@ -11844,22 +11844,22 @@
       </c>
       <c r="E3" s="0" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>8.0.0</t>
         </is>
       </c>
       <c r="F3" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.1.43-000735 </t>
+          <t xml:space="preserve">2.1.43-000774 </t>
         </is>
       </c>
       <c r="G3" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/651</t>
+          <t>http://118.25.173.30:9000/feedback/item/716</t>
         </is>
       </c>
       <c r="H3" s="4" t="inlineStr">
         <is>
-          <t>13816740275</t>
+          <t>18804130096</t>
         </is>
       </c>
       <c r="I3" s="0" t="inlineStr">
@@ -11869,14 +11869,14 @@
       </c>
       <c r="J3" s="0" t="inlineStr">
         <is>
-          <t>nnn</t>
+          <t>搜索不到50etf，不知道怎么交易</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>652</t>
+          <t>717</t>
         </is>
       </c>
       <c r="B4" s="0" t="inlineStr">
@@ -11886,30 +11886,34 @@
       </c>
       <c r="C4" s="0" t="inlineStr">
         <is>
-          <t>MI 9 SE</t>
+          <t>HUAWEI NXT-TL00</t>
         </is>
       </c>
       <c r="D4" s="0" t="inlineStr">
         <is>
-          <t>Xiaomi</t>
+          <t>HUAWEI</t>
         </is>
       </c>
       <c r="E4" s="0" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8.0.0</t>
         </is>
       </c>
       <c r="F4" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.1.42-000764 </t>
+          <t xml:space="preserve">2.1.43-000774 </t>
         </is>
       </c>
       <c r="G4" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/652</t>
-        </is>
-      </c>
-      <c r="H4" s="4" t="inlineStr"/>
+          <t>http://118.25.173.30:9000/feedback/item/717</t>
+        </is>
+      </c>
+      <c r="H4" s="4" t="inlineStr">
+        <is>
+          <t>18804130096</t>
+        </is>
+      </c>
       <c r="I4" s="0" t="inlineStr">
         <is>
           <t>False</t>
@@ -11917,14 +11921,14 @@
       </c>
       <c r="J4" s="0" t="inlineStr">
         <is>
-          <t>行情界面莫名卡顿</t>
+          <t>该软件能进行50etf交易吗？</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>653</t>
+          <t>718</t>
         </is>
       </c>
       <c r="B5" s="0" t="inlineStr">
@@ -11934,12 +11938,12 @@
       </c>
       <c r="C5" s="0" t="inlineStr">
         <is>
-          <t>Redmi K20 Pro</t>
+          <t>moto z3</t>
         </is>
       </c>
       <c r="D5" s="0" t="inlineStr">
         <is>
-          <t>Xiaomi</t>
+          <t>motorola</t>
         </is>
       </c>
       <c r="E5" s="0" t="inlineStr">
@@ -11954,7 +11958,7 @@
       </c>
       <c r="G5" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/653</t>
+          <t>http://118.25.173.30:9000/feedback/item/718</t>
         </is>
       </c>
       <c r="H5" s="4" t="inlineStr"/>
@@ -11965,14 +11969,14 @@
       </c>
       <c r="J5" s="0" t="inlineStr">
         <is>
-          <t>每日比赛交易结果报告与实际不符</t>
+          <t>为什么又崩了</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
         <is>
-          <t>654</t>
+          <t>719</t>
         </is>
       </c>
       <c r="B6" s="0" t="inlineStr">
@@ -11982,27 +11986,27 @@
       </c>
       <c r="C6" s="0" t="inlineStr">
         <is>
-          <t>HUAWEI NXT-AL10</t>
+          <t>moto z3</t>
         </is>
       </c>
       <c r="D6" s="0" t="inlineStr">
         <is>
-          <t>HUAWEI</t>
+          <t>motorola</t>
         </is>
       </c>
       <c r="E6" s="0" t="inlineStr">
         <is>
-          <t>8.0.0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F6" s="0" t="inlineStr">
         <is>
-          <t>2.1.33</t>
+          <t xml:space="preserve">2.1.42-000764 </t>
         </is>
       </c>
       <c r="G6" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/654</t>
+          <t>http://118.25.173.30:9000/feedback/item/719</t>
         </is>
       </c>
       <c r="H6" s="4" t="inlineStr"/>
@@ -12013,14 +12017,14 @@
       </c>
       <c r="J6" s="0" t="inlineStr">
         <is>
-          <t>密码重置不了</t>
+          <t>比赛的人又不多，为什么交易软件还这么卡，到底是谁给你们做的软件，真垃圾。</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="inlineStr">
         <is>
-          <t>655</t>
+          <t>720</t>
         </is>
       </c>
       <c r="B7" s="0" t="inlineStr">
@@ -12030,45 +12034,45 @@
       </c>
       <c r="C7" s="0" t="inlineStr">
         <is>
-          <t>HUAWEI NXT-AL10</t>
+          <t>vivo X20A</t>
         </is>
       </c>
       <c r="D7" s="0" t="inlineStr">
         <is>
-          <t>HUAWEI</t>
+          <t>vivo</t>
         </is>
       </c>
       <c r="E7" s="0" t="inlineStr">
         <is>
-          <t>8.0.0</t>
+          <t>8.1.0</t>
         </is>
       </c>
       <c r="F7" s="0" t="inlineStr">
         <is>
-          <t>2.1.33</t>
+          <t xml:space="preserve">2.1.42-000764 </t>
         </is>
       </c>
       <c r="G7" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/655</t>
+          <t>http://118.25.173.30:9000/feedback/item/720</t>
         </is>
       </c>
       <c r="H7" s="4" t="inlineStr"/>
       <c r="I7" s="0" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J7" s="0" t="inlineStr">
         <is>
-          <t>已经报名大赛 交易登录不了</t>
+          <t>不能登录</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="inlineStr">
         <is>
-          <t>656</t>
+          <t>721</t>
         </is>
       </c>
       <c r="B8" s="0" t="inlineStr">
@@ -12078,49 +12082,49 @@
       </c>
       <c r="C8" s="0" t="inlineStr">
         <is>
-          <t>HUAWEI NXT-AL10</t>
+          <t>STF-AL10</t>
         </is>
       </c>
       <c r="D8" s="0" t="inlineStr">
         <is>
-          <t>HUAWEI</t>
+          <t>HONOR</t>
         </is>
       </c>
       <c r="E8" s="0" t="inlineStr">
         <is>
-          <t>8.0.0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F8" s="0" t="inlineStr">
         <is>
-          <t>2.1.33</t>
+          <t xml:space="preserve">2.1.43-000735 </t>
         </is>
       </c>
       <c r="G8" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/656</t>
+          <t>http://118.25.173.30:9000/feedback/item/721</t>
         </is>
       </c>
       <c r="H8" s="4" t="inlineStr">
         <is>
-          <t>17858118382</t>
+          <t>13927753013</t>
         </is>
       </c>
       <c r="I8" s="0" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J8" s="0" t="inlineStr">
         <is>
-          <t>已经报名比赛  交易账户登录不了  无法交易</t>
+          <t>该客户现在只能进行平仓操作？</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="inlineStr">
         <is>
-          <t>657</t>
+          <t>722</t>
         </is>
       </c>
       <c r="B9" s="0" t="inlineStr">
@@ -12130,49 +12134,49 @@
       </c>
       <c r="C9" s="0" t="inlineStr">
         <is>
-          <t>ANE-AL00</t>
+          <t>Redmi Note 5</t>
         </is>
       </c>
       <c r="D9" s="0" t="inlineStr">
         <is>
-          <t>HUAWEI</t>
+          <t>xiaomi</t>
         </is>
       </c>
       <c r="E9" s="0" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8.1.0</t>
         </is>
       </c>
       <c r="F9" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.1.42-000764 </t>
+          <t xml:space="preserve">2.1.43-000735 </t>
         </is>
       </c>
       <c r="G9" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/657</t>
+          <t>http://118.25.173.30:9000/feedback/item/722</t>
         </is>
       </c>
       <c r="H9" s="4" t="inlineStr">
         <is>
-          <t>18401743790</t>
+          <t>13972456548</t>
         </is>
       </c>
       <c r="I9" s="0" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J9" s="0" t="inlineStr">
         <is>
-          <t>登录时会出现期货公司无法连接</t>
+          <t>交易的时候用的太卡顿了，太慢了，跟文华简直不是一个档次。行情和k线分析之类的，反应速度也太慢了。分时和分钟二k的切换放到上头，简直是反人类。</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="inlineStr">
         <is>
-          <t>658</t>
+          <t>723</t>
         </is>
       </c>
       <c r="B10" s="0" t="inlineStr">
@@ -12182,7 +12186,7 @@
       </c>
       <c r="C10" s="0" t="inlineStr">
         <is>
-          <t>MI 6X</t>
+          <t>Redmi Note 5</t>
         </is>
       </c>
       <c r="D10" s="0" t="inlineStr">
@@ -12192,7 +12196,7 @@
       </c>
       <c r="E10" s="0" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8.1.0</t>
         </is>
       </c>
       <c r="F10" s="0" t="inlineStr">
@@ -12202,10 +12206,14 @@
       </c>
       <c r="G10" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/658</t>
-        </is>
-      </c>
-      <c r="H10" s="4" t="inlineStr"/>
+          <t>http://118.25.173.30:9000/feedback/item/723</t>
+        </is>
+      </c>
+      <c r="H10" s="4" t="inlineStr">
+        <is>
+          <t>13972456548</t>
+        </is>
+      </c>
       <c r="I10" s="0" t="inlineStr">
         <is>
           <t>False</t>
@@ -12213,110 +12221,114 @@
       </c>
       <c r="J10" s="0" t="inlineStr">
         <is>
-          <t>登录不进去，闪退</t>
+          <t>交易的时候用的太卡顿了，太慢了，跟文华简直不是一个档次。行情和k线分析之类的，反应速度也太慢了。分时和分钟二k的切换放到上头，简直是反人类。</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="inlineStr">
         <is>
-          <t>659</t>
+          <t>724</t>
         </is>
       </c>
       <c r="B11" s="0" t="inlineStr">
         <is>
-          <t>未处理</t>
+          <t>已处理</t>
         </is>
       </c>
       <c r="C11" s="0" t="inlineStr">
         <is>
-          <t>vivo X9L</t>
+          <t>SM-A605G</t>
         </is>
       </c>
       <c r="D11" s="0" t="inlineStr">
         <is>
-          <t>vivo</t>
+          <t>samsung</t>
         </is>
       </c>
       <c r="E11" s="0" t="inlineStr">
         <is>
-          <t>7.1.2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F11" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.1.42-000764 </t>
+          <t>2.1.34</t>
         </is>
       </c>
       <c r="G11" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/659</t>
-        </is>
-      </c>
-      <c r="H11" s="4" t="inlineStr"/>
+          <t>http://118.25.173.30:9000/feedback/item/724</t>
+        </is>
+      </c>
+      <c r="H11" s="4" t="inlineStr">
+        <is>
+          <t>4180791</t>
+        </is>
+      </c>
       <c r="I11" s="0" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J11" s="0" t="inlineStr">
         <is>
-          <t>为什么又连不上了？？？我要死了这个仓位我没做止损</t>
+          <t>黄金一手交易的全部手续费多少</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="inlineStr">
         <is>
-          <t>660</t>
+          <t>725</t>
         </is>
       </c>
       <c r="B12" s="0" t="inlineStr">
         <is>
-          <t>未处理</t>
+          <t>已处理</t>
         </is>
       </c>
       <c r="C12" s="0" t="inlineStr">
         <is>
-          <t>OPPO A33</t>
+          <t>SM-A605G</t>
         </is>
       </c>
       <c r="D12" s="0" t="inlineStr">
         <is>
-          <t>OPPO</t>
+          <t>samsung</t>
         </is>
       </c>
       <c r="E12" s="0" t="inlineStr">
         <is>
-          <t>5.1.1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F12" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.1.42-000764 </t>
+          <t>2.1.34</t>
         </is>
       </c>
       <c r="G12" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/660</t>
+          <t>http://118.25.173.30:9000/feedback/item/725</t>
         </is>
       </c>
       <c r="H12" s="4" t="inlineStr"/>
       <c r="I12" s="0" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J12" s="0" t="inlineStr">
         <is>
-          <t>登录不上去</t>
+          <t>黄金一手的交易手续费全部是多少</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="inlineStr">
         <is>
-          <t>661</t>
+          <t>726</t>
         </is>
       </c>
       <c r="B13" s="0" t="inlineStr">
@@ -12326,34 +12338,30 @@
       </c>
       <c r="C13" s="0" t="inlineStr">
         <is>
-          <t>vivo Y83A</t>
+          <t>Redmi Note 7</t>
         </is>
       </c>
       <c r="D13" s="0" t="inlineStr">
         <is>
-          <t>vivo</t>
+          <t>xiaomi</t>
         </is>
       </c>
       <c r="E13" s="0" t="inlineStr">
         <is>
-          <t>8.1.0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F13" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.1.42-000764 </t>
+          <t xml:space="preserve">2.1.43-000735 </t>
         </is>
       </c>
       <c r="G13" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/661</t>
-        </is>
-      </c>
-      <c r="H13" s="4" t="inlineStr">
-        <is>
-          <t>17863928709</t>
-        </is>
-      </c>
+          <t>http://118.25.173.30:9000/feedback/item/726</t>
+        </is>
+      </c>
+      <c r="H13" s="4" t="inlineStr"/>
       <c r="I13" s="0" t="inlineStr">
         <is>
           <t>True</t>
@@ -12361,14 +12369,14 @@
       </c>
       <c r="J13" s="0" t="inlineStr">
         <is>
-          <t>我不知道什么情况</t>
+          <t>后台运行经常出现盘口正常跳动 分时消失 k线也是   还有就算在k线状态下  一直运行 会出现盘口跳动正常 k线不动</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0" t="inlineStr">
         <is>
-          <t>662</t>
+          <t>727</t>
         </is>
       </c>
       <c r="B14" s="0" t="inlineStr">
@@ -12378,12 +12386,12 @@
       </c>
       <c r="C14" s="0" t="inlineStr">
         <is>
-          <t>moto z3</t>
+          <t>Redmi Note 7</t>
         </is>
       </c>
       <c r="D14" s="0" t="inlineStr">
         <is>
-          <t>motorola</t>
+          <t>xiaomi</t>
         </is>
       </c>
       <c r="E14" s="0" t="inlineStr">
@@ -12393,45 +12401,45 @@
       </c>
       <c r="F14" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.1.42-000764 </t>
+          <t xml:space="preserve">2.1.43-000735 </t>
         </is>
       </c>
       <c r="G14" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/662</t>
+          <t>http://118.25.173.30:9000/feedback/item/727</t>
         </is>
       </c>
       <c r="H14" s="4" t="inlineStr"/>
       <c r="I14" s="0" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J14" s="0" t="inlineStr">
         <is>
-          <t>为什么总是交易不了</t>
+          <t>每次登录都会提示最后一笔成交提醒  能不能改成 当前登录状态下提醒  退出过app重新登录交易不再提醒之前的成交  提示音能不能增加 设置系统自带铃声  APP的的提醒音太小 蚊子都比他有提醒效果</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0" t="inlineStr">
         <is>
-          <t>663</t>
+          <t>728</t>
         </is>
       </c>
       <c r="B15" s="0" t="inlineStr">
         <is>
-          <t>未处理</t>
+          <t>已处理</t>
         </is>
       </c>
       <c r="C15" s="0" t="inlineStr">
         <is>
-          <t>moto z3</t>
+          <t>Redmi Note 7</t>
         </is>
       </c>
       <c r="D15" s="0" t="inlineStr">
         <is>
-          <t>motorola</t>
+          <t>xiaomi</t>
         </is>
       </c>
       <c r="E15" s="0" t="inlineStr">
@@ -12441,30 +12449,30 @@
       </c>
       <c r="F15" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.1.42-000764 </t>
+          <t xml:space="preserve">2.1.43-000735 </t>
         </is>
       </c>
       <c r="G15" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/663</t>
+          <t>http://118.25.173.30:9000/feedback/item/728</t>
         </is>
       </c>
       <c r="H15" s="4" t="inlineStr"/>
       <c r="I15" s="0" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J15" s="0" t="inlineStr">
         <is>
-          <t>为什么这么多</t>
+          <t>快买快卖  勾选撤单不再提醒  下次撤单依然提醒是否撤单</t>
         </is>
       </c>
     </row>
     <row customHeight="1" ht="14.25" r="16" s="1">
       <c r="A16" s="0" t="inlineStr">
         <is>
-          <t>664</t>
+          <t>729</t>
         </is>
       </c>
       <c r="B16" s="0" t="inlineStr">
@@ -12474,34 +12482,30 @@
       </c>
       <c r="C16" s="0" t="inlineStr">
         <is>
-          <t>SM-G9350</t>
+          <t>Redmi Note 7</t>
         </is>
       </c>
       <c r="D16" s="0" t="inlineStr">
         <is>
-          <t>samsung</t>
+          <t>xiaomi</t>
         </is>
       </c>
       <c r="E16" s="0" t="inlineStr">
         <is>
-          <t>8.0.0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F16" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.1.42-000764 </t>
+          <t xml:space="preserve">2.1.43-000735 </t>
         </is>
       </c>
       <c r="G16" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/664</t>
-        </is>
-      </c>
-      <c r="H16" s="6" t="inlineStr">
-        <is>
-          <t>15333930627</t>
-        </is>
-      </c>
+          <t>http://118.25.173.30:9000/feedback/item/729</t>
+        </is>
+      </c>
+      <c r="H16" s="6" t="inlineStr"/>
       <c r="I16" s="0" t="inlineStr">
         <is>
           <t>True</t>
@@ -12509,44 +12513,44 @@
       </c>
       <c r="J16" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">今天交易时间14:00出现登录失败   14:50登录成功后   保证金冻结400万  不知道是什么问题    </t>
+          <t>行情经常获取不到数据</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0" t="inlineStr">
         <is>
-          <t>665</t>
+          <t>730</t>
         </is>
       </c>
       <c r="B17" s="0" t="inlineStr">
         <is>
-          <t>未处理</t>
+          <t>已处理</t>
         </is>
       </c>
       <c r="C17" s="0" t="inlineStr">
         <is>
-          <t>iPhone X</t>
+          <t>Redmi Note 7</t>
         </is>
       </c>
       <c r="D17" s="0" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>xiaomi</t>
         </is>
       </c>
       <c r="E17" s="0" t="inlineStr">
         <is>
-          <t>12.3.1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F17" s="0" t="inlineStr">
         <is>
-          <t>2.1.34</t>
+          <t xml:space="preserve">2.1.43-000735 </t>
         </is>
       </c>
       <c r="G17" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/665</t>
+          <t>http://118.25.173.30:9000/feedback/item/730</t>
         </is>
       </c>
       <c r="H17" s="4" t="inlineStr"/>
@@ -12557,62 +12561,62 @@
       </c>
       <c r="J17" s="0" t="inlineStr">
         <is>
-          <t>test\r\n</t>
+          <t>你们牛逼</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0" t="inlineStr">
         <is>
-          <t>666</t>
+          <t>731</t>
         </is>
       </c>
       <c r="B18" s="0" t="inlineStr">
         <is>
-          <t>未处理</t>
+          <t>已处理</t>
         </is>
       </c>
       <c r="C18" s="0" t="inlineStr">
         <is>
-          <t>iPhone X</t>
+          <t>vivo Y79A</t>
         </is>
       </c>
       <c r="D18" s="0" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>vivo</t>
         </is>
       </c>
       <c r="E18" s="0" t="inlineStr">
         <is>
-          <t>12.3.1</t>
+          <t>7.1.2</t>
         </is>
       </c>
       <c r="F18" s="0" t="inlineStr">
         <is>
-          <t>2.1.34</t>
+          <t xml:space="preserve">2.1.42-000764 </t>
         </is>
       </c>
       <c r="G18" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/666</t>
+          <t>http://118.25.173.30:9000/feedback/item/731</t>
         </is>
       </c>
       <c r="H18" s="4" t="inlineStr"/>
       <c r="I18" s="0" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J18" s="0" t="inlineStr">
         <is>
-          <t>test1</t>
+          <t>没钱</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0" t="inlineStr">
         <is>
-          <t>667</t>
+          <t>732</t>
         </is>
       </c>
       <c r="B19" s="0" t="inlineStr">
@@ -12622,45 +12626,49 @@
       </c>
       <c r="C19" s="0" t="inlineStr">
         <is>
-          <t>iPhone X</t>
+          <t>vivo Y85A</t>
         </is>
       </c>
       <c r="D19" s="0" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>vivo</t>
         </is>
       </c>
       <c r="E19" s="0" t="inlineStr">
         <is>
-          <t>12.3.1</t>
+          <t>8.1.0</t>
         </is>
       </c>
       <c r="F19" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.1.51-000735 </t>
+          <t xml:space="preserve">2.1.42-000764 </t>
         </is>
       </c>
       <c r="G19" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/667</t>
-        </is>
-      </c>
-      <c r="H19" s="4" t="inlineStr"/>
+          <t>http://118.25.173.30:9000/feedback/item/732</t>
+        </is>
+      </c>
+      <c r="H19" s="4" t="inlineStr">
+        <is>
+          <t>16688375279</t>
+        </is>
+      </c>
       <c r="I19" s="0" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J19" s="0" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>不能购买期货了，怎么都交易失败，请解决</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0" t="inlineStr">
         <is>
-          <t>668</t>
+          <t>733</t>
         </is>
       </c>
       <c r="B20" s="0" t="inlineStr">
@@ -12670,30 +12678,34 @@
       </c>
       <c r="C20" s="0" t="inlineStr">
         <is>
-          <t>iPhone 7</t>
+          <t>HUAWEI NXT-AL10</t>
         </is>
       </c>
       <c r="D20" s="0" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>HUAWEI</t>
         </is>
       </c>
       <c r="E20" s="0" t="inlineStr">
         <is>
-          <t>11.2.5</t>
+          <t>8.0.0</t>
         </is>
       </c>
       <c r="F20" s="0" t="inlineStr">
         <is>
-          <t>2.1.34</t>
+          <t xml:space="preserve">2.1.43-000735 </t>
         </is>
       </c>
       <c r="G20" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/668</t>
-        </is>
-      </c>
-      <c r="H20" s="4" t="inlineStr"/>
+          <t>http://118.25.173.30:9000/feedback/item/733</t>
+        </is>
+      </c>
+      <c r="H20" s="4" t="inlineStr">
+        <is>
+          <t>18000209683</t>
+        </is>
+      </c>
       <c r="I20" s="0" t="inlineStr">
         <is>
           <t>True</t>
@@ -12701,14 +12713,14 @@
       </c>
       <c r="J20" s="0" t="inlineStr">
         <is>
-          <t>一直显示登录，请重试</t>
+          <t>分时图无法双指缩放;建议虚线能标注时间;希望交易界面能多些选项,如走势、可撤、明细、自选等</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0" t="inlineStr">
         <is>
-          <t>669</t>
+          <t>734</t>
         </is>
       </c>
       <c r="B21" s="0" t="inlineStr">
@@ -12718,45 +12730,45 @@
       </c>
       <c r="C21" s="0" t="inlineStr">
         <is>
-          <t>PAR-AL00</t>
+          <t>V1818A</t>
         </is>
       </c>
       <c r="D21" s="0" t="inlineStr">
         <is>
-          <t>HUAWEI</t>
+          <t>vivo</t>
         </is>
       </c>
       <c r="E21" s="0" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8.1.0</t>
         </is>
       </c>
       <c r="F21" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.1.42-000764 </t>
+          <t xml:space="preserve">2.1.43-000735 </t>
         </is>
       </c>
       <c r="G21" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/669</t>
+          <t>http://118.25.173.30:9000/feedback/item/734</t>
         </is>
       </c>
       <c r="H21" s="4" t="inlineStr"/>
       <c r="I21" s="0" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="J21" s="0" t="inlineStr">
         <is>
-          <t>学生证扫描件无法上传</t>
+          <t>Vivo Y93安卓手机，易星操作过程中出现闪退</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0" t="inlineStr">
         <is>
-          <t>670</t>
+          <t>735</t>
         </is>
       </c>
       <c r="B22" s="0" t="inlineStr">
@@ -12766,49 +12778,45 @@
       </c>
       <c r="C22" s="0" t="inlineStr">
         <is>
-          <t>MI 9</t>
+          <t>EVA-AL00</t>
         </is>
       </c>
       <c r="D22" s="0" t="inlineStr">
         <is>
-          <t>Xiaomi</t>
+          <t>HUAWEI</t>
         </is>
       </c>
       <c r="E22" s="0" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8.0.0</t>
         </is>
       </c>
       <c r="F22" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.1.42-000764 </t>
+          <t xml:space="preserve">2.1.43-000735 </t>
         </is>
       </c>
       <c r="G22" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/670</t>
-        </is>
-      </c>
-      <c r="H22" s="4" t="inlineStr">
-        <is>
-          <t>17726656721</t>
-        </is>
-      </c>
+          <t>http://118.25.173.30:9000/feedback/item/735</t>
+        </is>
+      </c>
+      <c r="H22" s="4" t="inlineStr"/>
       <c r="I22" s="0" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="J22" s="0" t="inlineStr">
         <is>
-          <t>为什么又是登陆失败，，，，</t>
+          <t>每根k线之间，间距过大，看着不舒服。</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0" t="inlineStr">
         <is>
-          <t>671</t>
+          <t>736</t>
         </is>
       </c>
       <c r="B23" s="0" t="inlineStr">
@@ -12818,69 +12826,65 @@
       </c>
       <c r="C23" s="0" t="inlineStr">
         <is>
-          <t>vivo X9i</t>
+          <t>1605-A01</t>
         </is>
       </c>
       <c r="D23" s="0" t="inlineStr">
         <is>
-          <t>vivo</t>
+          <t>360</t>
         </is>
       </c>
       <c r="E23" s="0" t="inlineStr">
         <is>
-          <t>7.1.2</t>
+          <t>6.0.1</t>
         </is>
       </c>
       <c r="F23" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.1.42-000764 </t>
+          <t xml:space="preserve">2.1.44-000735 </t>
         </is>
       </c>
       <c r="G23" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/671</t>
-        </is>
-      </c>
-      <c r="H23" s="4" t="inlineStr">
-        <is>
-          <t>17856004964</t>
-        </is>
-      </c>
+          <t>http://118.25.173.30:9000/feedback/item/736</t>
+        </is>
+      </c>
+      <c r="H23" s="4" t="inlineStr"/>
       <c r="I23" s="0" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J23" s="0" t="inlineStr">
         <is>
-          <t>上次反馈说没更新，现在更新了，还是登不上去。现在那个比赛我还没发弄。</t>
+          <t>帅哥，什么时候搞画线功能嗫，期待</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0" t="inlineStr">
         <is>
-          <t>672</t>
+          <t>737</t>
         </is>
       </c>
       <c r="B24" s="0" t="inlineStr">
         <is>
-          <t>未处理</t>
+          <t>已处理</t>
         </is>
       </c>
       <c r="C24" s="0" t="inlineStr">
         <is>
-          <t>HWI-AL00</t>
+          <t>vivo X20</t>
         </is>
       </c>
       <c r="D24" s="0" t="inlineStr">
         <is>
-          <t>HUAWEI</t>
+          <t>vivo</t>
         </is>
       </c>
       <c r="E24" s="0" t="inlineStr">
         <is>
-          <t>8.0.0</t>
+          <t>8.1.0</t>
         </is>
       </c>
       <c r="F24" s="0" t="inlineStr">
@@ -12890,88 +12894,88 @@
       </c>
       <c r="G24" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/672</t>
+          <t>http://118.25.173.30:9000/feedback/item/737</t>
         </is>
       </c>
       <c r="H24" s="4" t="inlineStr"/>
       <c r="I24" s="0" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="J24" s="0" t="inlineStr">
         <is>
-          <t>上传不了照片</t>
+          <t>登录不上</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0" t="inlineStr">
         <is>
-          <t>673</t>
+          <t>738</t>
         </is>
       </c>
       <c r="B25" s="0" t="inlineStr">
         <is>
-          <t>未处理</t>
+          <t>已处理</t>
         </is>
       </c>
       <c r="C25" s="0" t="inlineStr">
         <is>
-          <t>SM-N9500</t>
+          <t>MI PLAY</t>
         </is>
       </c>
       <c r="D25" s="0" t="inlineStr">
         <is>
-          <t>samsung</t>
+          <t>xiaomi</t>
         </is>
       </c>
       <c r="E25" s="0" t="inlineStr">
         <is>
-          <t>8.0.0</t>
+          <t>8.1.0</t>
         </is>
       </c>
       <c r="F25" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.1.43-000735 </t>
+          <t xml:space="preserve">2.1.42-000764 </t>
         </is>
       </c>
       <c r="G25" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/673</t>
+          <t>http://118.25.173.30:9000/feedback/item/738</t>
         </is>
       </c>
       <c r="H25" s="4" t="inlineStr"/>
       <c r="I25" s="0" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="J25" s="0" t="inlineStr">
         <is>
-          <t>卡 卡 卡卡卡卡卡</t>
+          <t>登不上去账号</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0" t="inlineStr">
         <is>
-          <t>674</t>
+          <t>739</t>
         </is>
       </c>
       <c r="B26" s="0" t="inlineStr">
         <is>
-          <t>未处理</t>
+          <t>已处理</t>
         </is>
       </c>
       <c r="C26" s="0" t="inlineStr">
         <is>
-          <t>Lenovo L78032</t>
+          <t>MI 9</t>
         </is>
       </c>
       <c r="D26" s="0" t="inlineStr">
         <is>
-          <t>Lenovo</t>
+          <t>Xiaomi</t>
         </is>
       </c>
       <c r="E26" s="0" t="inlineStr">
@@ -12986,10 +12990,14 @@
       </c>
       <c r="G26" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/674</t>
-        </is>
-      </c>
-      <c r="H26" s="4" t="inlineStr"/>
+          <t>http://118.25.173.30:9000/feedback/item/739</t>
+        </is>
+      </c>
+      <c r="H26" s="4" t="inlineStr">
+        <is>
+          <t>17726656721</t>
+        </is>
+      </c>
       <c r="I26" s="0" t="inlineStr">
         <is>
           <t>False</t>
@@ -12997,51 +13005,47 @@
       </c>
       <c r="J26" s="0" t="inlineStr">
         <is>
-          <t>比赛的撤单按钮在哪？</t>
+          <t>又是登陆失败，是不是星期天也登不上呀</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0" t="inlineStr">
         <is>
-          <t>675</t>
+          <t>740</t>
         </is>
       </c>
       <c r="B27" s="0" t="inlineStr">
         <is>
-          <t>未处理</t>
+          <t>已处理</t>
         </is>
       </c>
       <c r="C27" s="0" t="inlineStr">
         <is>
-          <t>LLD-AL10</t>
+          <t>iPhone 7 Plus</t>
         </is>
       </c>
       <c r="D27" s="0" t="inlineStr">
         <is>
-          <t>HONOR</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="E27" s="0" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="F27" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.1.43-000735 </t>
+          <t xml:space="preserve">2.1.42-000735 </t>
         </is>
       </c>
       <c r="G27" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/675</t>
-        </is>
-      </c>
-      <c r="H27" s="4" t="inlineStr">
-        <is>
-          <t>13837205645</t>
-        </is>
-      </c>
+          <t>http://118.25.173.30:9000/feedback/item/740</t>
+        </is>
+      </c>
+      <c r="H27" s="4" t="inlineStr"/>
       <c r="I27" s="0" t="inlineStr">
         <is>
           <t>False</t>
@@ -13049,99 +13053,99 @@
       </c>
       <c r="J27" s="0" t="inlineStr">
         <is>
-          <t>如何设置不要指标，不习惯指标显示</t>
+          <t>登录不上去</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0" t="inlineStr">
         <is>
-          <t>676</t>
+          <t>741</t>
         </is>
       </c>
       <c r="B28" s="0" t="inlineStr">
         <is>
-          <t>未处理</t>
+          <t>已处理</t>
         </is>
       </c>
       <c r="C28" s="0" t="inlineStr">
         <is>
-          <t>OPPO R11 Plus</t>
+          <t>DUK-AL20</t>
         </is>
       </c>
       <c r="D28" s="0" t="inlineStr">
         <is>
-          <t>OPPO</t>
+          <t>HONOR</t>
         </is>
       </c>
       <c r="E28" s="0" t="inlineStr">
         <is>
-          <t>7.1.1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F28" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.1.42-000764 </t>
+          <t xml:space="preserve">2.1.44-000735 </t>
         </is>
       </c>
       <c r="G28" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/676</t>
-        </is>
-      </c>
-      <c r="H28" s="4" t="inlineStr">
-        <is>
-          <t>18340352202</t>
-        </is>
-      </c>
+          <t>http://118.25.173.30:9000/feedback/item/741</t>
+        </is>
+      </c>
+      <c r="H28" s="4" t="inlineStr"/>
       <c r="I28" s="0" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J28" s="0" t="inlineStr">
         <is>
-          <t>登录不上账号</t>
+          <t>天天登录失败，，能不能完善一下APP啊</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0" t="inlineStr">
         <is>
-          <t>677</t>
+          <t>742</t>
         </is>
       </c>
       <c r="B29" s="0" t="inlineStr">
         <is>
-          <t>未处理</t>
+          <t>已处理</t>
         </is>
       </c>
       <c r="C29" s="0" t="inlineStr">
         <is>
-          <t>OPPO R7sm</t>
+          <t>FIG-AL10</t>
         </is>
       </c>
       <c r="D29" s="0" t="inlineStr">
         <is>
-          <t>OPPO</t>
+          <t>HUAWEI</t>
         </is>
       </c>
       <c r="E29" s="0" t="inlineStr">
         <is>
-          <t>5.1.1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F29" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.1.43-000735 </t>
+          <t xml:space="preserve">2.1.42-000764 </t>
         </is>
       </c>
       <c r="G29" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/677</t>
-        </is>
-      </c>
-      <c r="H29" s="4" t="inlineStr"/>
+          <t>http://118.25.173.30:9000/feedback/item/742</t>
+        </is>
+      </c>
+      <c r="H29" s="4" t="inlineStr">
+        <is>
+          <t>15242658530</t>
+        </is>
+      </c>
       <c r="I29" s="0" t="inlineStr">
         <is>
           <t>False</t>
@@ -13149,34 +13153,34 @@
       </c>
       <c r="J29" s="0" t="inlineStr">
         <is>
-          <t>钱转不了到卡</t>
+          <t>一直登陆失败</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0" t="inlineStr">
         <is>
-          <t>678</t>
+          <t>743</t>
         </is>
       </c>
       <c r="B30" s="0" t="inlineStr">
         <is>
-          <t>未处理</t>
+          <t>已处理</t>
         </is>
       </c>
       <c r="C30" s="0" t="inlineStr">
         <is>
-          <t>SM-G5700</t>
+          <t>iPhone 7 Plus</t>
         </is>
       </c>
       <c r="D30" s="0" t="inlineStr">
         <is>
-          <t>samsung</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="E30" s="0" t="inlineStr">
         <is>
-          <t>8.0.0</t>
+          <t>12.1.4</t>
         </is>
       </c>
       <c r="F30" s="0" t="inlineStr">
@@ -13186,10 +13190,14 @@
       </c>
       <c r="G30" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/678</t>
-        </is>
-      </c>
-      <c r="H30" s="4" t="inlineStr"/>
+          <t>http://118.25.173.30:9000/feedback/item/743</t>
+        </is>
+      </c>
+      <c r="H30" s="4" t="inlineStr">
+        <is>
+          <t>19834420125</t>
+        </is>
+      </c>
       <c r="I30" s="0" t="inlineStr">
         <is>
           <t>False</t>
@@ -13197,44 +13205,44 @@
       </c>
       <c r="J30" s="0" t="inlineStr">
         <is>
-          <t>海证期货（CTP主席）没有添加到期货公司列表，无法使用软件进行交易。</t>
+          <t>无法正常登陆，显示交易断开。</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0" t="inlineStr">
         <is>
-          <t>679</t>
+          <t>744</t>
         </is>
       </c>
       <c r="B31" s="0" t="inlineStr">
         <is>
-          <t>未处理</t>
+          <t>已处理</t>
         </is>
       </c>
       <c r="C31" s="0" t="inlineStr">
         <is>
-          <t>YOTA 3+</t>
+          <t>MI 6X</t>
         </is>
       </c>
       <c r="D31" s="0" t="inlineStr">
         <is>
-          <t>YOTA</t>
+          <t>xiaomi</t>
         </is>
       </c>
       <c r="E31" s="0" t="inlineStr">
         <is>
-          <t>8.1.0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F31" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.1.43-000735 </t>
+          <t xml:space="preserve">2.1.44-000735 </t>
         </is>
       </c>
       <c r="G31" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/679</t>
+          <t>http://118.25.173.30:9000/feedback/item/744</t>
         </is>
       </c>
       <c r="H31" s="4" t="inlineStr"/>
@@ -13245,44 +13253,44 @@
       </c>
       <c r="J31" s="0" t="inlineStr">
         <is>
-          <t>其他还好，图表看着太恶心了，还是DOS内核吧？\r\n费电</t>
+          <t>登录不上！！！！</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0" t="inlineStr">
         <is>
-          <t>680</t>
+          <t>745</t>
         </is>
       </c>
       <c r="B32" s="0" t="inlineStr">
         <is>
-          <t>未处理</t>
+          <t>已处理</t>
         </is>
       </c>
       <c r="C32" s="0" t="inlineStr">
         <is>
-          <t>YOTA 3+</t>
+          <t>BKL-AL00</t>
         </is>
       </c>
       <c r="D32" s="0" t="inlineStr">
         <is>
-          <t>YOTA</t>
+          <t>HONOR</t>
         </is>
       </c>
       <c r="E32" s="0" t="inlineStr">
         <is>
-          <t>8.1.0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F32" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.1.43-000735 </t>
+          <t xml:space="preserve">2.1.42-000764 </t>
         </is>
       </c>
       <c r="G32" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/680</t>
+          <t>http://118.25.173.30:9000/feedback/item/745</t>
         </is>
       </c>
       <c r="H32" s="4" t="inlineStr"/>
@@ -13293,29 +13301,29 @@
       </c>
       <c r="J32" s="0" t="inlineStr">
         <is>
-          <t>图表太low了</t>
+          <t>我进不去</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0" t="inlineStr">
         <is>
-          <t>681</t>
+          <t>746</t>
         </is>
       </c>
       <c r="B33" s="0" t="inlineStr">
         <is>
-          <t>未处理</t>
+          <t>已处理</t>
         </is>
       </c>
       <c r="C33" s="0" t="inlineStr">
         <is>
-          <t>YOTA 3+</t>
+          <t>vivo X9s Plus</t>
         </is>
       </c>
       <c r="D33" s="0" t="inlineStr">
         <is>
-          <t>YOTA</t>
+          <t>vivo</t>
         </is>
       </c>
       <c r="E33" s="0" t="inlineStr">
@@ -13325,12 +13333,12 @@
       </c>
       <c r="F33" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.1.43-000735 </t>
+          <t xml:space="preserve">2.1.44-000735 </t>
         </is>
       </c>
       <c r="G33" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/681</t>
+          <t>http://118.25.173.30:9000/feedback/item/746</t>
         </is>
       </c>
       <c r="H33" s="4" t="inlineStr"/>
@@ -13341,81 +13349,77 @@
       </c>
       <c r="J33" s="0" t="inlineStr">
         <is>
-          <t>根目录下建一堆目录，诶我想问一下，你们家马桶尿壶都放大门口啊？</t>
+          <t>经常登录失败</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0" t="inlineStr">
         <is>
-          <t>682</t>
+          <t>747</t>
         </is>
       </c>
       <c r="B34" s="0" t="inlineStr">
         <is>
-          <t>未处理</t>
+          <t>已处理</t>
         </is>
       </c>
       <c r="C34" s="0" t="inlineStr">
         <is>
-          <t>ZTE BV0720</t>
+          <t>MI 9</t>
         </is>
       </c>
       <c r="D34" s="0" t="inlineStr">
         <is>
-          <t>ZTE</t>
+          <t>Xiaomi</t>
         </is>
       </c>
       <c r="E34" s="0" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F34" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.1.43-000735 </t>
+          <t xml:space="preserve">2.1.42-000764 </t>
         </is>
       </c>
       <c r="G34" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/682</t>
-        </is>
-      </c>
-      <c r="H34" s="4" t="inlineStr">
-        <is>
-          <t>17071835221</t>
-        </is>
-      </c>
+          <t>http://118.25.173.30:9000/feedback/item/747</t>
+        </is>
+      </c>
+      <c r="H34" s="4" t="inlineStr"/>
       <c r="I34" s="0" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J34" s="0" t="inlineStr">
         <is>
-          <t>两个问题   一:内盘期货账户登录不上，老是提示密码错误。我在期货公司提供的别的APP上却可以登录 二:交易界面保存账号密码不好用，因为退出APP后再登录根本就没有保存再次登录还要填账号密码非常麻烦！我喜欢你们公司的APP设计，麻烦改进</t>
+          <t>一直登录不上</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0" t="inlineStr">
         <is>
-          <t>683</t>
+          <t>748</t>
         </is>
       </c>
       <c r="B35" s="0" t="inlineStr">
         <is>
-          <t>未处理</t>
+          <t>已处理</t>
         </is>
       </c>
       <c r="C35" s="0" t="inlineStr">
         <is>
-          <t>MI 4C</t>
+          <t>OPPO R9s</t>
         </is>
       </c>
       <c r="D35" s="0" t="inlineStr">
         <is>
-          <t>Xiaomi</t>
+          <t>OPPO</t>
         </is>
       </c>
       <c r="E35" s="0" t="inlineStr">
@@ -13425,60 +13429,60 @@
       </c>
       <c r="F35" s="0" t="inlineStr">
         <is>
-          <t>2.1.34</t>
+          <t xml:space="preserve">2.1.42-000764 </t>
         </is>
       </c>
       <c r="G35" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/683</t>
+          <t>http://118.25.173.30:9000/feedback/item/748</t>
         </is>
       </c>
       <c r="H35" s="4" t="inlineStr"/>
       <c r="I35" s="0" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J35" s="0" t="inlineStr">
         <is>
-          <t>明明赚钱的单子显示出来是止损</t>
+          <t>登录失败</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0" t="inlineStr">
         <is>
-          <t>684</t>
+          <t>749</t>
         </is>
       </c>
       <c r="B36" s="0" t="inlineStr">
         <is>
-          <t>未处理</t>
+          <t>已处理</t>
         </is>
       </c>
       <c r="C36" s="0" t="inlineStr">
         <is>
-          <t>V1838A</t>
+          <t>iPhone 6</t>
         </is>
       </c>
       <c r="D36" s="0" t="inlineStr">
         <is>
-          <t>vivo</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="E36" s="0" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>12.2</t>
         </is>
       </c>
       <c r="F36" s="0" t="inlineStr">
         <is>
-          <t>2.1.33</t>
+          <t>2.1.35</t>
         </is>
       </c>
       <c r="G36" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/684</t>
+          <t>http://118.25.173.30:9000/feedback/item/749</t>
         </is>
       </c>
       <c r="H36" s="4" t="inlineStr"/>
@@ -13489,24 +13493,24 @@
       </c>
       <c r="J36" s="0" t="inlineStr">
         <is>
-          <t>咋找回账户和密码啊？</t>
+          <t>我登录的时候 一直显示交易连接断开</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0" t="inlineStr">
         <is>
-          <t>685</t>
+          <t>750</t>
         </is>
       </c>
       <c r="B37" s="0" t="inlineStr">
         <is>
-          <t>未处理</t>
+          <t>已处理</t>
         </is>
       </c>
       <c r="C37" s="0" t="inlineStr">
         <is>
-          <t>vivo X7</t>
+          <t>vivo V3</t>
         </is>
       </c>
       <c r="D37" s="0" t="inlineStr">
@@ -13526,44 +13530,40 @@
       </c>
       <c r="G37" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/685</t>
-        </is>
-      </c>
-      <c r="H37" s="4" t="inlineStr">
-        <is>
-          <t>177900041503</t>
-        </is>
-      </c>
+          <t>http://118.25.173.30:9000/feedback/item/750</t>
+        </is>
+      </c>
+      <c r="H37" s="4" t="inlineStr"/>
       <c r="I37" s="0" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J37" s="0" t="inlineStr">
         <is>
-          <t>？？系统有bug吧，已经平仓的为什么还显示。</t>
+          <t>登陆不上</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0" t="inlineStr">
         <is>
-          <t>686</t>
+          <t>751</t>
         </is>
       </c>
       <c r="B38" s="0" t="inlineStr">
         <is>
-          <t>未处理</t>
+          <t>已处理</t>
         </is>
       </c>
       <c r="C38" s="0" t="inlineStr">
         <is>
-          <t>V1838A</t>
+          <t>ALP-AL00</t>
         </is>
       </c>
       <c r="D38" s="0" t="inlineStr">
         <is>
-          <t>vivo</t>
+          <t>HUAWEI</t>
         </is>
       </c>
       <c r="E38" s="0" t="inlineStr">
@@ -13578,14 +13578,10 @@
       </c>
       <c r="G38" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/686</t>
-        </is>
-      </c>
-      <c r="H38" s="4" t="inlineStr">
-        <is>
-          <t>18006277690</t>
-        </is>
-      </c>
+          <t>http://118.25.173.30:9000/feedback/item/751</t>
+        </is>
+      </c>
+      <c r="H38" s="4" t="inlineStr"/>
       <c r="I38" s="0" t="inlineStr">
         <is>
           <t>True</t>
@@ -13593,24 +13589,24 @@
       </c>
       <c r="J38" s="0" t="inlineStr">
         <is>
-          <t>用户名密码正确但是登录不上附图上的，还有报名的信息上要学生证件，但是证件的上传照片那里点不起没有反应，个人信息的头像也是一样。</t>
+          <t>登不上去</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0" t="inlineStr">
         <is>
-          <t>687</t>
+          <t>752</t>
         </is>
       </c>
       <c r="B39" s="0" t="inlineStr">
         <is>
-          <t>未处理</t>
+          <t>已处理</t>
         </is>
       </c>
       <c r="C39" s="0" t="inlineStr">
         <is>
-          <t>MI 9</t>
+          <t>MI 8</t>
         </is>
       </c>
       <c r="D39" s="0" t="inlineStr">
@@ -13630,14 +13626,10 @@
       </c>
       <c r="G39" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/687</t>
-        </is>
-      </c>
-      <c r="H39" s="4" t="inlineStr">
-        <is>
-          <t>17726656721</t>
-        </is>
-      </c>
+          <t>http://118.25.173.30:9000/feedback/item/752</t>
+        </is>
+      </c>
+      <c r="H39" s="4" t="inlineStr"/>
       <c r="I39" s="0" t="inlineStr">
         <is>
           <t>False</t>
@@ -13645,51 +13637,47 @@
       </c>
       <c r="J39" s="0" t="inlineStr">
         <is>
-          <t>今天才登三次，又登不上了😓，这个登录次数有限制吗？</t>
+          <t>手机端登录不了</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0" t="inlineStr">
         <is>
-          <t>688</t>
+          <t>753</t>
         </is>
       </c>
       <c r="B40" s="0" t="inlineStr">
         <is>
-          <t>未处理</t>
+          <t>已处理</t>
         </is>
       </c>
       <c r="C40" s="0" t="inlineStr">
         <is>
-          <t>Lenovo L38041</t>
+          <t>MI 6</t>
         </is>
       </c>
       <c r="D40" s="0" t="inlineStr">
         <is>
-          <t>Lenovo</t>
+          <t>Xiaomi</t>
         </is>
       </c>
       <c r="E40" s="0" t="inlineStr">
         <is>
-          <t>8.1.0</t>
+          <t>8.0.0</t>
         </is>
       </c>
       <c r="F40" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.1.43-000735 </t>
+          <t xml:space="preserve">2.1.42-000764 </t>
         </is>
       </c>
       <c r="G40" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/688</t>
-        </is>
-      </c>
-      <c r="H40" s="4" t="inlineStr">
-        <is>
-          <t>13504928469</t>
-        </is>
-      </c>
+          <t>http://118.25.173.30:9000/feedback/item/753</t>
+        </is>
+      </c>
+      <c r="H40" s="4" t="inlineStr"/>
       <c r="I40" s="0" t="inlineStr">
         <is>
           <t>False</t>
@@ -13697,24 +13685,24 @@
       </c>
       <c r="J40" s="0" t="inlineStr">
         <is>
-          <t>你好，贵公司这款软件k线与k线之间的距离很大，能否调的密一点，这样让k线本身变大，看的会更清楚。另外能否增加一下不常用的指标，可以删掉这样的功能。</t>
+          <t>登不上去</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0" t="inlineStr">
         <is>
-          <t>689</t>
+          <t>754</t>
         </is>
       </c>
       <c r="B41" s="0" t="inlineStr">
         <is>
-          <t>未处理</t>
+          <t>已处理</t>
         </is>
       </c>
       <c r="C41" s="0" t="inlineStr">
         <is>
-          <t>BLA-AL00</t>
+          <t>EML-AL00</t>
         </is>
       </c>
       <c r="D41" s="0" t="inlineStr">
@@ -13729,111 +13717,119 @@
       </c>
       <c r="F41" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.1.43-000735 </t>
+          <t xml:space="preserve">2.1.42-000764 </t>
         </is>
       </c>
       <c r="G41" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/689</t>
-        </is>
-      </c>
-      <c r="H41" s="4" t="inlineStr"/>
+          <t>http://118.25.173.30:9000/feedback/item/754</t>
+        </is>
+      </c>
+      <c r="H41" s="4" t="inlineStr">
+        <is>
+          <t>18833205857</t>
+        </is>
+      </c>
       <c r="I41" s="0" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J41" s="0" t="inlineStr">
         <is>
-          <t>一到晚上老是登录超时</t>
+          <t>登录失败</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0" t="inlineStr">
         <is>
-          <t>690</t>
+          <t>755</t>
         </is>
       </c>
       <c r="B42" s="0" t="inlineStr">
         <is>
-          <t>未处理</t>
+          <t>已处理</t>
         </is>
       </c>
       <c r="C42" s="0" t="inlineStr">
         <is>
-          <t>OPPO A57t</t>
+          <t>iPhone 7 Plus</t>
         </is>
       </c>
       <c r="D42" s="0" t="inlineStr">
         <is>
-          <t>OPPO</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="E42" s="0" t="inlineStr">
         <is>
-          <t>6.0.1</t>
+          <t>12.1.4</t>
         </is>
       </c>
       <c r="F42" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.1.42-000764 </t>
+          <t xml:space="preserve">2.1.42-000735 </t>
         </is>
       </c>
       <c r="G42" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/690</t>
+          <t>http://118.25.173.30:9000/feedback/item/755</t>
         </is>
       </c>
       <c r="H42" s="4" t="inlineStr"/>
       <c r="I42" s="0" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="J42" s="0" t="inlineStr">
         <is>
-          <t>为什么郑商所模拟大赛的账号登录不进去</t>
+          <t>上不去账户</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0" t="inlineStr">
         <is>
-          <t>691</t>
+          <t>756</t>
         </is>
       </c>
       <c r="B43" s="0" t="inlineStr">
         <is>
-          <t>未处理</t>
+          <t>已处理</t>
         </is>
       </c>
       <c r="C43" s="0" t="inlineStr">
         <is>
-          <t>iPhone 6s</t>
+          <t>ELE-AL00</t>
         </is>
       </c>
       <c r="D43" s="0" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>HUAWEI</t>
         </is>
       </c>
       <c r="E43" s="0" t="inlineStr">
         <is>
-          <t>12.3.1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F43" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.1.42-000735 </t>
+          <t xml:space="preserve">2.1.44-000735 </t>
         </is>
       </c>
       <c r="G43" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/691</t>
-        </is>
-      </c>
-      <c r="H43" s="4" t="inlineStr"/>
+          <t>http://118.25.173.30:9000/feedback/item/756</t>
+        </is>
+      </c>
+      <c r="H43" s="4" t="inlineStr">
+        <is>
+          <t>13426758098</t>
+        </is>
+      </c>
       <c r="I43" s="0" t="inlineStr">
         <is>
           <t>False</t>
@@ -13841,29 +13837,29 @@
       </c>
       <c r="J43" s="0" t="inlineStr">
         <is>
-          <t>如何移动或去除旋转屏按钮？</t>
+          <t>登录不了一直显示登录失败！！</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0" t="inlineStr">
         <is>
-          <t>692</t>
+          <t>757</t>
         </is>
       </c>
       <c r="B44" s="0" t="inlineStr">
         <is>
-          <t>未处理</t>
+          <t>已处理</t>
         </is>
       </c>
       <c r="C44" s="0" t="inlineStr">
         <is>
-          <t>V1818A</t>
+          <t>MI 5X</t>
         </is>
       </c>
       <c r="D44" s="0" t="inlineStr">
         <is>
-          <t>vivo</t>
+          <t>xiaomi</t>
         </is>
       </c>
       <c r="E44" s="0" t="inlineStr">
@@ -13873,17 +13869,17 @@
       </c>
       <c r="F44" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.1.43-000735 </t>
+          <t xml:space="preserve">2.1.42-000764 </t>
         </is>
       </c>
       <c r="G44" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/692</t>
+          <t>http://118.25.173.30:9000/feedback/item/757</t>
         </is>
       </c>
       <c r="H44" s="4" t="inlineStr">
         <is>
-          <t>18625032720</t>
+          <t>15705951244</t>
         </is>
       </c>
       <c r="I44" s="0" t="inlineStr">
@@ -13893,86 +13889,82 @@
       </c>
       <c r="J44" s="0" t="inlineStr">
         <is>
-          <t>vivo Y93安卓版</t>
+          <t>为什么我登入不了了啊</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0" t="inlineStr">
         <is>
-          <t>693</t>
+          <t>758</t>
         </is>
       </c>
       <c r="B45" s="0" t="inlineStr">
         <is>
-          <t>未处理</t>
+          <t>已处理</t>
         </is>
       </c>
       <c r="C45" s="7" t="inlineStr">
         <is>
-          <t>V1818A</t>
+          <t>PCAM00</t>
         </is>
       </c>
       <c r="D45" s="0" t="inlineStr">
         <is>
-          <t>vivo</t>
+          <t>OPPO</t>
         </is>
       </c>
       <c r="E45" s="0" t="inlineStr">
         <is>
-          <t>8.1.0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F45" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.1.43-000735 </t>
+          <t xml:space="preserve">2.1.42-000764 </t>
         </is>
       </c>
       <c r="G45" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/693</t>
-        </is>
-      </c>
-      <c r="H45" s="4" t="inlineStr">
-        <is>
-          <t>18625032720</t>
-        </is>
-      </c>
+          <t>http://118.25.173.30:9000/feedback/item/758</t>
+        </is>
+      </c>
+      <c r="H45" s="4" t="inlineStr"/>
       <c r="I45" s="0" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J45" s="0" t="inlineStr">
         <is>
-          <t>1.打开易星安卓手机时会闪退；\r\n2.浏览行情时偶尔会闪退</t>
+          <t>登陆失败</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0" t="inlineStr">
         <is>
-          <t>694</t>
+          <t>759</t>
         </is>
       </c>
       <c r="B46" s="0" t="inlineStr">
         <is>
-          <t>未处理</t>
+          <t>已处理</t>
         </is>
       </c>
       <c r="C46" s="0" t="inlineStr">
         <is>
-          <t>MI 8</t>
+          <t>PCAM00</t>
         </is>
       </c>
       <c r="D46" s="0" t="inlineStr">
         <is>
-          <t>Xiaomi</t>
+          <t>OPPO</t>
         </is>
       </c>
       <c r="E46" s="0" t="inlineStr">
         <is>
-          <t>8.1.0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F46" s="0" t="inlineStr">
@@ -13982,49 +13974,45 @@
       </c>
       <c r="G46" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/694</t>
-        </is>
-      </c>
-      <c r="H46" s="4" t="inlineStr">
-        <is>
-          <t>15835107093</t>
-        </is>
-      </c>
+          <t>http://118.25.173.30:9000/feedback/item/759</t>
+        </is>
+      </c>
+      <c r="H46" s="4" t="inlineStr"/>
       <c r="I46" s="0" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="J46" s="0" t="inlineStr">
         <is>
-          <t>密码忘记，找回密码的时候，验证码怎么没有反应，收不到</t>
+          <t>登录失败</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0" t="inlineStr">
         <is>
-          <t>695</t>
+          <t>760</t>
         </is>
       </c>
       <c r="B47" s="0" t="inlineStr">
         <is>
-          <t>未处理</t>
+          <t>已处理</t>
         </is>
       </c>
       <c r="C47" s="0" t="inlineStr">
         <is>
-          <t>PACM00</t>
+          <t>MHA-AL00</t>
         </is>
       </c>
       <c r="D47" s="0" t="inlineStr">
         <is>
-          <t>OPPO</t>
+          <t>HUAWEI</t>
         </is>
       </c>
       <c r="E47" s="0" t="inlineStr">
         <is>
-          <t>8.1.0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F47" s="0" t="inlineStr">
@@ -14034,7 +14022,7 @@
       </c>
       <c r="G47" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/695</t>
+          <t>http://118.25.173.30:9000/feedback/item/760</t>
         </is>
       </c>
       <c r="H47" s="4" t="inlineStr"/>
@@ -14045,49 +14033,49 @@
       </c>
       <c r="J47" s="0" t="inlineStr">
         <is>
-          <t>添加不了图片</t>
+          <t>交易登录登录不了，显示登录失败。</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0" t="inlineStr">
         <is>
-          <t>696</t>
+          <t>761</t>
         </is>
       </c>
       <c r="B48" s="0" t="inlineStr">
         <is>
-          <t>未处理</t>
+          <t>已处理</t>
         </is>
       </c>
       <c r="C48" s="0" t="inlineStr">
         <is>
-          <t>YOTA 3+</t>
+          <t>MHA-AL00</t>
         </is>
       </c>
       <c r="D48" s="0" t="inlineStr">
         <is>
-          <t>YOTA</t>
+          <t>HUAWEI</t>
         </is>
       </c>
       <c r="E48" s="0" t="inlineStr">
         <is>
-          <t>8.1.0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F48" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.1.43-000735 </t>
+          <t xml:space="preserve">2.1.42-000764 </t>
         </is>
       </c>
       <c r="G48" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/696</t>
+          <t>http://118.25.173.30:9000/feedback/item/761</t>
         </is>
       </c>
       <c r="H48" s="4" t="inlineStr">
         <is>
-          <t>81900826</t>
+          <t>13794953613</t>
         </is>
       </c>
       <c r="I48" s="0" t="inlineStr">
@@ -14097,49 +14085,49 @@
       </c>
       <c r="J48" s="0" t="inlineStr">
         <is>
-          <t>主力排名这块，正反排序可以合二为一，腾出地方多加几个比如振幅、阶段排名等等比较实用的</t>
+          <t>交易登录不了，显示登录失败。</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0" t="inlineStr">
         <is>
-          <t>697</t>
+          <t>762</t>
         </is>
       </c>
       <c r="B49" s="0" t="inlineStr">
         <is>
-          <t>未处理</t>
+          <t>已处理</t>
         </is>
       </c>
       <c r="C49" s="0" t="inlineStr">
         <is>
-          <t>MI MAX 2</t>
+          <t>MI 6X</t>
         </is>
       </c>
       <c r="D49" s="0" t="inlineStr">
         <is>
-          <t>Xiaomi</t>
+          <t>xiaomi</t>
         </is>
       </c>
       <c r="E49" s="0" t="inlineStr">
         <is>
-          <t>7.1.1</t>
+          <t>8.1.0</t>
         </is>
       </c>
       <c r="F49" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.1.43-000735 </t>
+          <t xml:space="preserve">2.1.42-000764 </t>
         </is>
       </c>
       <c r="G49" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/697</t>
+          <t>http://118.25.173.30:9000/feedback/item/762</t>
         </is>
       </c>
       <c r="H49" s="4" t="inlineStr">
         <is>
-          <t>18017006113</t>
+          <t>18406591890</t>
         </is>
       </c>
       <c r="I49" s="0" t="inlineStr">
@@ -14149,29 +14137,29 @@
       </c>
       <c r="J49" s="0" t="inlineStr">
         <is>
-          <t>您好，我的密码次数超限，登不上去怎么办</t>
+          <t>登录有问题，多次长时间登不上</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0" t="inlineStr">
         <is>
-          <t>698</t>
+          <t>763</t>
         </is>
       </c>
       <c r="B50" s="0" t="inlineStr">
         <is>
-          <t>未处理</t>
+          <t>已处理</t>
         </is>
       </c>
       <c r="C50" s="0" t="inlineStr">
         <is>
-          <t>Redmi Note 7 Pro</t>
+          <t>PAR-AL00</t>
         </is>
       </c>
       <c r="D50" s="0" t="inlineStr">
         <is>
-          <t>xiaomi</t>
+          <t>HUAWEI</t>
         </is>
       </c>
       <c r="E50" s="0" t="inlineStr">
@@ -14186,35 +14174,39 @@
       </c>
       <c r="G50" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/698</t>
-        </is>
-      </c>
-      <c r="H50" s="4" t="inlineStr"/>
+          <t>http://118.25.173.30:9000/feedback/item/763</t>
+        </is>
+      </c>
+      <c r="H50" s="4" t="inlineStr">
+        <is>
+          <t>17337107909</t>
+        </is>
+      </c>
       <c r="I50" s="0" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="J50" s="0" t="inlineStr">
         <is>
-          <t>交易登录为什么总是说我密码错误</t>
+          <t>为什么我大赛已经登录了，但是要交易就还让我登录，明明是一样的账号密码，无论如何都登不上</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0" t="inlineStr">
         <is>
-          <t>699</t>
+          <t>764</t>
         </is>
       </c>
       <c r="B51" s="0" t="inlineStr">
         <is>
-          <t>未处理</t>
+          <t>已处理</t>
         </is>
       </c>
       <c r="C51" s="0" t="inlineStr">
         <is>
-          <t>Redmi Note 5</t>
+          <t>MI 5X</t>
         </is>
       </c>
       <c r="D51" s="0" t="inlineStr">
@@ -14224,7 +14216,7 @@
       </c>
       <c r="E51" s="0" t="inlineStr">
         <is>
-          <t>8.1.0</t>
+          <t>7.1.2</t>
         </is>
       </c>
       <c r="F51" s="0" t="inlineStr">
@@ -14234,39 +14226,35 @@
       </c>
       <c r="G51" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/699</t>
-        </is>
-      </c>
-      <c r="H51" s="4" t="inlineStr">
-        <is>
-          <t>18856353531</t>
-        </is>
-      </c>
+          <t>http://118.25.173.30:9000/feedback/item/764</t>
+        </is>
+      </c>
+      <c r="H51" s="4" t="inlineStr"/>
       <c r="I51" s="0" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="J51" s="0" t="inlineStr">
         <is>
-          <t>账户忘记密码怎么办</t>
+          <t>账号密码无误，却总是登录失败</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>765</t>
         </is>
       </c>
       <c r="B52" s="0" t="inlineStr">
         <is>
-          <t>未处理</t>
+          <t>已处理</t>
         </is>
       </c>
       <c r="C52" s="0" t="inlineStr">
         <is>
-          <t>WAS-TL10</t>
+          <t>PAR-AL00</t>
         </is>
       </c>
       <c r="D52" s="0" t="inlineStr">
@@ -14276,22 +14264,22 @@
       </c>
       <c r="E52" s="0" t="inlineStr">
         <is>
-          <t>8.0.0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F52" s="0" t="inlineStr">
         <is>
-          <t>2.1.33</t>
+          <t xml:space="preserve">2.1.42-000764 </t>
         </is>
       </c>
       <c r="G52" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/700</t>
+          <t>http://118.25.173.30:9000/feedback/item/765</t>
         </is>
       </c>
       <c r="H52" s="4" t="inlineStr">
         <is>
-          <t>18800154007</t>
+          <t>17337107909</t>
         </is>
       </c>
       <c r="I52" s="0" t="inlineStr">
@@ -14301,29 +14289,29 @@
       </c>
       <c r="J52" s="0" t="inlineStr">
         <is>
-          <t>不能登录。\n忘了密码，密码找回时不给发信息</t>
+          <t>到底为什么登录不了啊？？不是没反应就是说错误，但是明明没有错啊！比赛已经开始十几天了再登不上我就自动弃权了，到底怎么回事啊我要疯了</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0" t="inlineStr">
         <is>
-          <t>701</t>
+          <t>766</t>
         </is>
       </c>
       <c r="B53" s="0" t="inlineStr">
         <is>
-          <t>未处理</t>
+          <t>已处理</t>
         </is>
       </c>
       <c r="C53" s="0" t="inlineStr">
         <is>
-          <t>MI 8</t>
+          <t>MI 5X</t>
         </is>
       </c>
       <c r="D53" s="0" t="inlineStr">
         <is>
-          <t>Xiaomi</t>
+          <t>xiaomi</t>
         </is>
       </c>
       <c r="E53" s="0" t="inlineStr">
@@ -14338,12 +14326,12 @@
       </c>
       <c r="G53" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/701</t>
+          <t>http://118.25.173.30:9000/feedback/item/766</t>
         </is>
       </c>
       <c r="H53" s="4" t="inlineStr">
         <is>
-          <t>15835107093</t>
+          <t>15705951244</t>
         </is>
       </c>
       <c r="I53" s="0" t="inlineStr">
@@ -14353,29 +14341,29 @@
       </c>
       <c r="J53" s="0" t="inlineStr">
         <is>
-          <t>已经成功改密码了，不用联系了！！</t>
+          <t>没办法登入</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="0" t="inlineStr">
         <is>
-          <t>702</t>
+          <t>767</t>
         </is>
       </c>
       <c r="B54" s="0" t="inlineStr">
         <is>
-          <t>未处理</t>
+          <t>已处理</t>
         </is>
       </c>
       <c r="C54" s="0" t="inlineStr">
         <is>
-          <t>BKK-AL00</t>
+          <t>MI 6X</t>
         </is>
       </c>
       <c r="D54" s="0" t="inlineStr">
         <is>
-          <t>HONOR</t>
+          <t>xiaomi</t>
         </is>
       </c>
       <c r="E54" s="0" t="inlineStr">
@@ -14385,168 +14373,160 @@
       </c>
       <c r="F54" s="0" t="inlineStr">
         <is>
-          <t>2.1.34</t>
+          <t xml:space="preserve">2.1.42-000764 </t>
         </is>
       </c>
       <c r="G54" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/702</t>
-        </is>
-      </c>
-      <c r="H54" s="4" t="inlineStr">
-        <is>
-          <t>13678978996</t>
-        </is>
-      </c>
+          <t>http://118.25.173.30:9000/feedback/item/767</t>
+        </is>
+      </c>
+      <c r="H54" s="4" t="inlineStr"/>
       <c r="I54" s="0" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="J54" s="0" t="inlineStr">
         <is>
-          <t>我是两年前开了国富期货的客户。去年帐号还可以登录。今年以来一直登录不了。上星斯到现在看到的是说帐号不存在。是怎么回事？</t>
+          <t>根本登录不上去，还要参加比赛呢，希望官方快点解决这个问题</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="0" t="inlineStr">
         <is>
-          <t>703</t>
+          <t>768</t>
         </is>
       </c>
       <c r="B55" s="0" t="inlineStr">
         <is>
-          <t>未处理</t>
+          <t>已处理</t>
         </is>
       </c>
       <c r="C55" s="0" t="inlineStr">
         <is>
-          <t>VKY-AL00</t>
+          <t>PBCM30</t>
         </is>
       </c>
       <c r="D55" s="0" t="inlineStr">
         <is>
-          <t>HUAWEI</t>
+          <t>OPPO</t>
         </is>
       </c>
       <c r="E55" s="0" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8.1.0</t>
         </is>
       </c>
       <c r="F55" s="0" t="inlineStr">
         <is>
-          <t>2.1.33</t>
+          <t xml:space="preserve">2.1.42-000764 </t>
         </is>
       </c>
       <c r="G55" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/703</t>
-        </is>
-      </c>
-      <c r="H55" s="4" t="inlineStr">
-        <is>
-          <t>17687346084</t>
-        </is>
-      </c>
+          <t>http://118.25.173.30:9000/feedback/item/768</t>
+        </is>
+      </c>
+      <c r="H55" s="4" t="inlineStr"/>
       <c r="I55" s="0" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J55" s="0" t="inlineStr">
         <is>
-          <t>登录账号错误990210</t>
+          <t>登录不上去</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="0" t="inlineStr">
         <is>
-          <t>704</t>
+          <t>769</t>
         </is>
       </c>
       <c r="B56" s="0" t="inlineStr">
         <is>
-          <t>未处理</t>
+          <t>已处理</t>
         </is>
       </c>
       <c r="C56" s="0" t="inlineStr">
         <is>
-          <t>vivo X21A</t>
+          <t>MI 8 SE</t>
         </is>
       </c>
       <c r="D56" s="0" t="inlineStr">
         <is>
-          <t>vivo</t>
+          <t>Xiaomi</t>
         </is>
       </c>
       <c r="E56" s="0" t="inlineStr">
         <is>
-          <t>8.1.0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F56" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.1.42-000764 </t>
+          <t xml:space="preserve">2.1.44-000735 </t>
         </is>
       </c>
       <c r="G56" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/704</t>
+          <t>http://118.25.173.30:9000/feedback/item/769</t>
         </is>
       </c>
       <c r="H56" s="0" t="inlineStr">
         <is>
-          <t>15797891423</t>
+          <t>18804056221</t>
         </is>
       </c>
       <c r="I56" s="0" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J56" s="0" t="inlineStr">
         <is>
-          <t>功能增设设想/建议: 增加事件下单指令功能，在某事件若发生情况下执行下一事件指令，若某事件没有发生则下一事件指令不触发，即下一事件指令是以某事件指令发生为前提的。比如若设定的A事件指令发生，则执行B事件指令（基于A事件发生情况下），否则不执行B事件指令。举个具体的例子: 甲在某合约价格（或指数等）1000元（点）的时候做多买入，设定当价格上涨至1100（止盈价）时止盈卖出平仓，设这个事件为A事件，可是甲由于没有时间一直盯盘或资金量也非无限，甲希望在价格涨至1100或者更高价格时做空卖出，设为B事件，即甲在1100或更高价格开空单做空卖出。为此甲在1000价位做多买入时，设定了A事件指令同时设定了B事件指令，当价格果真上涨到了1100，即A事件发生，执行A事件指令在1100止盈卖出平仓，同时触发B事件（因为A事件发生了），在1100开空单做空卖出（此时也刚好可视为甲止盈并当即于止盈价反手，我叫这个为“止盈（并）反手指令”），或更高价格开空单做空卖出，此时由于A事件发生，资金也获得回笼，能更优地继续执行B事件。以上这个过程可简述如下: 甲在1000价位做多买入，并设定A事件指令（在1100止盈卖出平仓），并设定B事件指令（在1120开空仓做空卖出），倘若A事件没有发生，则B事件不可能发生也不会执行，倘若A事件发生，价位超过1100但没达到1120，B事件指令没有发生执行但已触发，一旦价格涨到1120，B事件指令就会立即执行在1120做空卖出。当然，若还设置止损，亦可设置止损并反手指令，a事件指令（980止损卖出平仓），b事件（980开空单做空卖出）。反之，如果甲一开始在1000价位是做空卖出，同理。此外，A事件不发生，可选择设置α事件，即A事件不发生则触发α事件，若A事件发生，B事件触发但没执行，此时处于空仓，若B事件触发并执行了，在此基础之上又可设置C事件…我称其为事件驱动的事件指令集而且是可动态的。</t>
+          <t>模拟交易大赛登不上账号是为什么</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="0" t="inlineStr">
         <is>
-          <t>705</t>
+          <t>770</t>
         </is>
       </c>
       <c r="B57" s="0" t="inlineStr">
         <is>
-          <t>未处理</t>
+          <t>已处理</t>
         </is>
       </c>
       <c r="C57" s="0" t="inlineStr">
         <is>
-          <t>PACM00</t>
+          <t>vivo Y55</t>
         </is>
       </c>
       <c r="D57" s="0" t="inlineStr">
         <is>
-          <t>OPPO</t>
+          <t>vivo</t>
         </is>
       </c>
       <c r="E57" s="0" t="inlineStr">
         <is>
-          <t>8.1.0</t>
+          <t>6.0.1</t>
         </is>
       </c>
       <c r="F57" s="0" t="inlineStr">
         <is>
-          <t>2.1.34</t>
+          <t xml:space="preserve">2.1.42-000764 </t>
         </is>
       </c>
       <c r="G57" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/705</t>
+          <t>http://118.25.173.30:9000/feedback/item/770</t>
         </is>
       </c>
       <c r="H57" s="0" t="inlineStr"/>
@@ -14557,51 +14537,47 @@
       </c>
       <c r="J57" s="0" t="inlineStr">
         <is>
-          <t>行情登录不了？</t>
+          <t>登录失败</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="0" t="inlineStr">
         <is>
-          <t>706</t>
+          <t>771</t>
         </is>
       </c>
       <c r="B58" s="0" t="inlineStr">
         <is>
-          <t>未处理</t>
+          <t>已处理</t>
         </is>
       </c>
       <c r="C58" s="0" t="inlineStr">
         <is>
-          <t>MP1605</t>
+          <t>EML-AL00</t>
         </is>
       </c>
       <c r="D58" s="0" t="inlineStr">
         <is>
-          <t>Meitu</t>
+          <t>HUAWEI</t>
         </is>
       </c>
       <c r="E58" s="0" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F58" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.1.43-000735 </t>
+          <t xml:space="preserve">2.1.42-000764 </t>
         </is>
       </c>
       <c r="G58" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/706</t>
-        </is>
-      </c>
-      <c r="H58" s="0" t="inlineStr">
-        <is>
-          <t>17643065866</t>
-        </is>
-      </c>
+          <t>http://118.25.173.30:9000/feedback/item/771</t>
+        </is>
+      </c>
+      <c r="H58" s="0" t="inlineStr"/>
       <c r="I58" s="0" t="inlineStr">
         <is>
           <t>False</t>
@@ -14609,24 +14585,24 @@
       </c>
       <c r="J58" s="0" t="inlineStr">
         <is>
-          <t>密码现实不正确</t>
+          <t>登录不上去</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="0" t="inlineStr">
         <is>
-          <t>707</t>
+          <t>772</t>
         </is>
       </c>
       <c r="B59" s="0" t="inlineStr">
         <is>
-          <t>未处理</t>
+          <t>已处理</t>
         </is>
       </c>
       <c r="C59" s="0" t="inlineStr">
         <is>
-          <t>VTR-AL00</t>
+          <t>FIG-AL10</t>
         </is>
       </c>
       <c r="D59" s="0" t="inlineStr">
@@ -14641,15 +14617,19 @@
       </c>
       <c r="F59" s="0" t="inlineStr">
         <is>
-          <t>2.1.34</t>
+          <t xml:space="preserve">2.1.42-000764 </t>
         </is>
       </c>
       <c r="G59" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/707</t>
-        </is>
-      </c>
-      <c r="H59" s="0" t="inlineStr"/>
+          <t>http://118.25.173.30:9000/feedback/item/772</t>
+        </is>
+      </c>
+      <c r="H59" s="0" t="inlineStr">
+        <is>
+          <t>15242658530</t>
+        </is>
+      </c>
       <c r="I59" s="0" t="inlineStr">
         <is>
           <t>False</t>
@@ -14657,24 +14637,24 @@
       </c>
       <c r="J59" s="0" t="inlineStr">
         <is>
-          <t>多谢多的人，</t>
+          <t>登陆失败</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="0" t="inlineStr">
         <is>
-          <t>708</t>
+          <t>773</t>
         </is>
       </c>
       <c r="B60" s="0" t="inlineStr">
         <is>
-          <t>未处理</t>
+          <t>已处理</t>
         </is>
       </c>
       <c r="C60" s="0" t="inlineStr">
         <is>
-          <t>VTR-AL00</t>
+          <t>MHA-AL00</t>
         </is>
       </c>
       <c r="D60" s="0" t="inlineStr">
@@ -14689,40 +14669,44 @@
       </c>
       <c r="F60" s="0" t="inlineStr">
         <is>
-          <t>2.1.34</t>
+          <t xml:space="preserve">2.1.42-000764 </t>
         </is>
       </c>
       <c r="G60" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/708</t>
-        </is>
-      </c>
-      <c r="H60" s="0" t="inlineStr"/>
+          <t>http://118.25.173.30:9000/feedback/item/773</t>
+        </is>
+      </c>
+      <c r="H60" s="0" t="inlineStr">
+        <is>
+          <t>13794953613</t>
+        </is>
+      </c>
       <c r="I60" s="0" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="J60" s="0" t="inlineStr">
         <is>
-          <t>eununuuuujjjjjuuujj马</t>
+          <t>为什么还是登录失败？显示登录失败，请重试，还是登录不了。</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="0" t="inlineStr">
         <is>
-          <t>709</t>
+          <t>774</t>
         </is>
       </c>
       <c r="B61" s="0" t="inlineStr">
         <is>
-          <t>未处理</t>
+          <t>已处理</t>
         </is>
       </c>
       <c r="C61" s="0" t="inlineStr">
         <is>
-          <t>VTR-AL00</t>
+          <t>EML-AL00</t>
         </is>
       </c>
       <c r="D61" s="0" t="inlineStr">
@@ -14737,15 +14721,19 @@
       </c>
       <c r="F61" s="0" t="inlineStr">
         <is>
-          <t>2.1.34</t>
+          <t xml:space="preserve">2.1.41-000764 </t>
         </is>
       </c>
       <c r="G61" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/709</t>
-        </is>
-      </c>
-      <c r="H61" s="0" t="inlineStr"/>
+          <t>http://118.25.173.30:9000/feedback/item/774</t>
+        </is>
+      </c>
+      <c r="H61" s="0" t="inlineStr">
+        <is>
+          <t>17302255928</t>
+        </is>
+      </c>
       <c r="I61" s="0" t="inlineStr">
         <is>
           <t>False</t>
@@ -14753,44 +14741,44 @@
       </c>
       <c r="J61" s="0" t="inlineStr">
         <is>
-          <t>eununuuuujjjjjuuujj马</t>
+          <t>使用个人中心提供的账号和密码但一直登录失败</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="0" t="inlineStr">
         <is>
-          <t>710</t>
+          <t>775</t>
         </is>
       </c>
       <c r="B62" s="0" t="inlineStr">
         <is>
-          <t>未处理</t>
+          <t>已处理</t>
         </is>
       </c>
       <c r="C62" s="0" t="inlineStr">
         <is>
-          <t>VTR-AL00</t>
+          <t>Redmi 6A</t>
         </is>
       </c>
       <c r="D62" s="0" t="inlineStr">
         <is>
-          <t>HUAWEI</t>
+          <t>xiaomi</t>
         </is>
       </c>
       <c r="E62" s="0" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8.1.0</t>
         </is>
       </c>
       <c r="F62" s="0" t="inlineStr">
         <is>
-          <t>2.1.34</t>
+          <t xml:space="preserve">2.1.44-000735 </t>
         </is>
       </c>
       <c r="G62" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/710</t>
+          <t>http://118.25.173.30:9000/feedback/item/775</t>
         </is>
       </c>
       <c r="H62" s="0" t="inlineStr"/>
@@ -14801,47 +14789,51 @@
       </c>
       <c r="J62" s="0" t="inlineStr">
         <is>
-          <t>eununuuuujjjjjuuujj马</t>
+          <t>账号登陆失败，也在官网上下载最新版本了，密码也没错</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="0" t="inlineStr">
         <is>
-          <t>711</t>
+          <t>776</t>
         </is>
       </c>
       <c r="B63" s="0" t="inlineStr">
         <is>
-          <t>未处理</t>
+          <t>已处理</t>
         </is>
       </c>
       <c r="C63" s="0" t="inlineStr">
         <is>
-          <t>VTR-AL00</t>
+          <t>vivo X9s L</t>
         </is>
       </c>
       <c r="D63" s="0" t="inlineStr">
         <is>
-          <t>HUAWEI</t>
+          <t>vivo</t>
         </is>
       </c>
       <c r="E63" s="0" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8.1.0</t>
         </is>
       </c>
       <c r="F63" s="0" t="inlineStr">
         <is>
-          <t>2.1.34</t>
+          <t xml:space="preserve">2.1.42-000764 </t>
         </is>
       </c>
       <c r="G63" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/711</t>
-        </is>
-      </c>
-      <c r="H63" s="0" t="inlineStr"/>
+          <t>http://118.25.173.30:9000/feedback/item/776</t>
+        </is>
+      </c>
+      <c r="H63" s="0" t="inlineStr">
+        <is>
+          <t>15121127229</t>
+        </is>
+      </c>
       <c r="I63" s="0" t="inlineStr">
         <is>
           <t>False</t>
@@ -14849,34 +14841,34 @@
       </c>
       <c r="J63" s="0" t="inlineStr">
         <is>
-          <t>eununuuuujjjjjuuujj马</t>
+          <t>一直登录失败\r\n用户名和密码到底是啥。。</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="0" t="inlineStr">
         <is>
-          <t>712</t>
+          <t>777</t>
         </is>
       </c>
       <c r="B64" s="0" t="inlineStr">
         <is>
-          <t>未处理</t>
+          <t>已处理</t>
         </is>
       </c>
       <c r="C64" s="0" t="inlineStr">
         <is>
-          <t>vivo Y67L</t>
+          <t>PBEM00</t>
         </is>
       </c>
       <c r="D64" s="0" t="inlineStr">
         <is>
-          <t>vivo</t>
+          <t>OPPO</t>
         </is>
       </c>
       <c r="E64" s="0" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>8.1.0</t>
         </is>
       </c>
       <c r="F64" s="0" t="inlineStr">
@@ -14886,7 +14878,7 @@
       </c>
       <c r="G64" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/712</t>
+          <t>http://118.25.173.30:9000/feedback/item/777</t>
         </is>
       </c>
       <c r="H64" s="0" t="inlineStr"/>
@@ -14897,24 +14889,24 @@
       </c>
       <c r="J64" s="0" t="inlineStr">
         <is>
-          <t>密码正确为什么登录不上一直显示密码错误</t>
+          <t>登不上怎么办啊</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="0" t="inlineStr">
         <is>
-          <t>713</t>
+          <t>778</t>
         </is>
       </c>
       <c r="B65" s="0" t="inlineStr">
         <is>
-          <t>未处理</t>
+          <t>已处理</t>
         </is>
       </c>
       <c r="C65" s="0" t="inlineStr">
         <is>
-          <t>vivo X21A</t>
+          <t>vivo X20</t>
         </is>
       </c>
       <c r="D65" s="0" t="inlineStr">
@@ -14924,74 +14916,70 @@
       </c>
       <c r="E65" s="0" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8.1.0</t>
         </is>
       </c>
       <c r="F65" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.1.42-000764 </t>
+          <t>2.1.33</t>
         </is>
       </c>
       <c r="G65" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/713</t>
-        </is>
-      </c>
-      <c r="H65" s="0" t="inlineStr">
-        <is>
-          <t>15385899028</t>
-        </is>
-      </c>
+          <t>http://118.25.173.30:9000/feedback/item/778</t>
+        </is>
+      </c>
+      <c r="H65" s="0" t="inlineStr"/>
       <c r="I65" s="0" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J65" s="0" t="inlineStr">
         <is>
-          <t>郑商所杯前天出现卡顿，导致总额无故增加。昨天卡顿后，晚上发现无故出现总额达到200多万。由于前两天的系统问题，导致今天平均分低。据我计算，今天上涨大概20万左右，可是交易记录显示今天亏损35万左右。本人认为前两次卡顿导致的问题影响了昨天自己今天的分数。希望能重新计算一下我的分数。</t>
+          <t>我的号登录不了</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="0" t="inlineStr">
         <is>
-          <t>714</t>
+          <t>779</t>
         </is>
       </c>
       <c r="B66" s="0" t="inlineStr">
         <is>
-          <t>未处理</t>
+          <t>已处理</t>
         </is>
       </c>
       <c r="C66" s="0" t="inlineStr">
         <is>
-          <t>iPhone 6s</t>
+          <t>vivo X9Plus L</t>
         </is>
       </c>
       <c r="D66" s="0" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>vivo</t>
         </is>
       </c>
       <c r="E66" s="0" t="inlineStr">
         <is>
-          <t>12.3</t>
+          <t>7.1.2</t>
         </is>
       </c>
       <c r="F66" s="0" t="inlineStr">
         <is>
-          <t>2.1.34</t>
+          <t xml:space="preserve">2.1.42-000764 </t>
         </is>
       </c>
       <c r="G66" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/714</t>
+          <t>http://118.25.173.30:9000/feedback/item/779</t>
         </is>
       </c>
       <c r="H66" s="0" t="inlineStr">
         <is>
-          <t>13310895757</t>
+          <t>13820185936</t>
         </is>
       </c>
       <c r="I66" s="0" t="inlineStr">
@@ -15001,47 +14989,51 @@
       </c>
       <c r="J66" s="0" t="inlineStr">
         <is>
-          <t>老是收不到登录验证码</t>
+          <t>登录失败</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="0" t="inlineStr">
         <is>
-          <t>715</t>
+          <t>780</t>
         </is>
       </c>
       <c r="B67" s="0" t="inlineStr">
         <is>
-          <t>未处理</t>
+          <t>已处理</t>
         </is>
       </c>
       <c r="C67" s="0" t="inlineStr">
         <is>
-          <t>iPhone X</t>
+          <t>EML-AL00</t>
         </is>
       </c>
       <c r="D67" s="0" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>HUAWEI</t>
         </is>
       </c>
       <c r="E67" s="0" t="inlineStr">
         <is>
-          <t>12.3.1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F67" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">2.1.42-000735 </t>
+          <t xml:space="preserve">2.1.42-000764 </t>
         </is>
       </c>
       <c r="G67" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/715</t>
-        </is>
-      </c>
-      <c r="H67" s="0" t="inlineStr"/>
+          <t>http://118.25.173.30:9000/feedback/item/780</t>
+        </is>
+      </c>
+      <c r="H67" s="0" t="inlineStr">
+        <is>
+          <t>18940399841</t>
+        </is>
+      </c>
       <c r="I67" s="0" t="inlineStr">
         <is>
           <t>True</t>
@@ -15049,77 +15041,81 @@
       </c>
       <c r="J67" s="0" t="inlineStr">
         <is>
-          <t>手机登入后没有退出放在后台，等过了好几个小时后再打开提示要重新登入，但是怎么登入都显示登入数超限</t>
+          <t>登不了</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="0" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>781</t>
         </is>
       </c>
       <c r="B68" s="0" t="inlineStr">
         <is>
-          <t>未处理</t>
+          <t>已处理</t>
         </is>
       </c>
       <c r="C68" s="0" t="inlineStr">
         <is>
-          <t>DUK-AL20</t>
+          <t>MI 5X</t>
         </is>
       </c>
       <c r="D68" s="0" t="inlineStr">
         <is>
-          <t>HONOR</t>
+          <t>xiaomi</t>
         </is>
       </c>
       <c r="E68" s="0" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8.1.0</t>
         </is>
       </c>
       <c r="F68" s="0" t="inlineStr">
         <is>
-          <t>2.1.31</t>
+          <t xml:space="preserve">2.1.42-000764 </t>
         </is>
       </c>
       <c r="G68" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/201</t>
-        </is>
-      </c>
-      <c r="H68" s="0" t="inlineStr"/>
+          <t>http://118.25.173.30:9000/feedback/item/781</t>
+        </is>
+      </c>
+      <c r="H68" s="0" t="inlineStr">
+        <is>
+          <t>15705951244</t>
+        </is>
+      </c>
       <c r="I68" s="0" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="J68" s="0" t="inlineStr">
         <is>
-          <t>竖屏无法显示5条均线，希望k线主题可以像文华财经随身行那样</t>
+          <t>交易登入没办法进去，其他都可以登入</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="0" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>782</t>
         </is>
       </c>
       <c r="B69" s="0" t="inlineStr">
         <is>
-          <t>未处理</t>
+          <t>已处理</t>
         </is>
       </c>
       <c r="C69" s="0" t="inlineStr">
         <is>
-          <t>ARS-AL00</t>
+          <t>PBAT00</t>
         </is>
       </c>
       <c r="D69" s="0" t="inlineStr">
         <is>
-          <t>HUAWEI</t>
+          <t>OPPO</t>
         </is>
       </c>
       <c r="E69" s="0" t="inlineStr">
@@ -15129,111 +15125,123 @@
       </c>
       <c r="F69" s="0" t="inlineStr">
         <is>
-          <t>2.1.33</t>
+          <t xml:space="preserve">2.1.42-000764 </t>
         </is>
       </c>
       <c r="G69" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/202</t>
-        </is>
-      </c>
-      <c r="H69" s="0" t="inlineStr"/>
+          <t>http://118.25.173.30:9000/feedback/item/782</t>
+        </is>
+      </c>
+      <c r="H69" s="0" t="inlineStr">
+        <is>
+          <t>13018610816</t>
+        </is>
+      </c>
       <c r="I69" s="0" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="J69" s="0" t="inlineStr">
         <is>
-          <t>增加一个持仓成本线就那么难吗？期待！</t>
+          <t>登录交易账号时一直显示登录失败，即使账号跟密码都正确</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="0" t="inlineStr">
         <is>
-          <t>203</t>
+          <t>783</t>
         </is>
       </c>
       <c r="B70" s="0" t="inlineStr">
         <is>
-          <t>未处理</t>
+          <t>已处理</t>
         </is>
       </c>
       <c r="C70" s="0" t="inlineStr">
         <is>
-          <t>Redmi 5A</t>
+          <t>iPhone 7 Plus</t>
         </is>
       </c>
       <c r="D70" s="0" t="inlineStr">
         <is>
-          <t>Xiaomi</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="E70" s="0" t="inlineStr">
         <is>
-          <t>7.1.2</t>
+          <t>12.1.4</t>
         </is>
       </c>
       <c r="F70" s="0" t="inlineStr">
         <is>
-          <t>2.1.33</t>
+          <t xml:space="preserve">2.1.43-000735 </t>
         </is>
       </c>
       <c r="G70" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/203</t>
-        </is>
-      </c>
-      <c r="H70" s="0" t="inlineStr"/>
+          <t>http://118.25.173.30:9000/feedback/item/783</t>
+        </is>
+      </c>
+      <c r="H70" s="0" t="inlineStr">
+        <is>
+          <t>13086295551</t>
+        </is>
+      </c>
       <c r="I70" s="0" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="J70" s="0" t="inlineStr">
         <is>
-          <t>均线可以增加到8条以上嘛</t>
+          <t>您好！为什么登陆不了？</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="0" t="inlineStr">
         <is>
-          <t>204</t>
+          <t>784</t>
         </is>
       </c>
       <c r="B71" s="0" t="inlineStr">
         <is>
-          <t>未处理</t>
+          <t>已处理</t>
         </is>
       </c>
       <c r="C71" s="0" t="inlineStr">
         <is>
-          <t>ARS-AL00</t>
+          <t>vivo X7</t>
         </is>
       </c>
       <c r="D71" s="0" t="inlineStr">
         <is>
-          <t>HUAWEI</t>
+          <t>vivo</t>
         </is>
       </c>
       <c r="E71" s="0" t="inlineStr">
         <is>
-          <t>8.1.0</t>
+          <t>5.1.1</t>
         </is>
       </c>
       <c r="F71" s="0" t="inlineStr">
         <is>
-          <t>2.1.33</t>
+          <t xml:space="preserve">2.1.42-000764 </t>
         </is>
       </c>
       <c r="G71" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/204</t>
-        </is>
-      </c>
-      <c r="H71" s="0" t="inlineStr"/>
+          <t>http://118.25.173.30:9000/feedback/item/784</t>
+        </is>
+      </c>
+      <c r="H71" s="0" t="inlineStr">
+        <is>
+          <t>15616227591</t>
+        </is>
+      </c>
       <c r="I71" s="0" t="inlineStr">
         <is>
           <t>False</t>
@@ -15241,29 +15249,29 @@
       </c>
       <c r="J71" s="0" t="inlineStr">
         <is>
-          <t>画线下单功能逻辑不合理！平仓画线，不管那个方向，总是会提示委托价格不合理，什么意思？好多次，我都对这个功能失去信心了！</t>
+          <t>登录不了，密码没有错误</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="0" t="inlineStr">
         <is>
-          <t>205</t>
+          <t>785</t>
         </is>
       </c>
       <c r="B72" s="0" t="inlineStr">
         <is>
-          <t>未处理</t>
+          <t>已处理</t>
         </is>
       </c>
       <c r="C72" s="0" t="inlineStr">
         <is>
-          <t>MI 8</t>
+          <t>EML-AL00</t>
         </is>
       </c>
       <c r="D72" s="0" t="inlineStr">
         <is>
-          <t>Xiaomi</t>
+          <t>HUAWEI</t>
         </is>
       </c>
       <c r="E72" s="0" t="inlineStr">
@@ -15273,45 +15281,49 @@
       </c>
       <c r="F72" s="0" t="inlineStr">
         <is>
-          <t>2.1.33</t>
+          <t xml:space="preserve">2.1.42-000764 </t>
         </is>
       </c>
       <c r="G72" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/205</t>
-        </is>
-      </c>
-      <c r="H72" s="0" t="inlineStr"/>
+          <t>http://118.25.173.30:9000/feedback/item/785</t>
+        </is>
+      </c>
+      <c r="H72" s="0" t="inlineStr">
+        <is>
+          <t>17302255928</t>
+        </is>
+      </c>
       <c r="I72" s="0" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J72" s="0" t="inlineStr">
         <is>
-          <t>闪退</t>
+          <t>登不上！！！！！？！！！！</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="0" t="inlineStr">
         <is>
-          <t>206</t>
+          <t>786</t>
         </is>
       </c>
       <c r="B73" s="0" t="inlineStr">
         <is>
-          <t>未处理</t>
+          <t>已处理</t>
         </is>
       </c>
       <c r="C73" s="0" t="inlineStr">
         <is>
-          <t>Redmi 6 Pro</t>
+          <t>EML-AL00</t>
         </is>
       </c>
       <c r="D73" s="0" t="inlineStr">
         <is>
-          <t>xiaomi</t>
+          <t>HUAWEI</t>
         </is>
       </c>
       <c r="E73" s="0" t="inlineStr">
@@ -15321,60 +15333,64 @@
       </c>
       <c r="F73" s="0" t="inlineStr">
         <is>
-          <t>2.1.33</t>
+          <t xml:space="preserve">2.1.42-000764 </t>
         </is>
       </c>
       <c r="G73" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/206</t>
-        </is>
-      </c>
-      <c r="H73" s="0" t="inlineStr"/>
+          <t>http://118.25.173.30:9000/feedback/item/786</t>
+        </is>
+      </c>
+      <c r="H73" s="0" t="inlineStr">
+        <is>
+          <t>17302255928</t>
+        </is>
+      </c>
       <c r="I73" s="0" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J73" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve">老是闪退   </t>
+          <t>登不上！！！！！！！！！！！！！！！！！！</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="0" t="inlineStr">
         <is>
-          <t>207</t>
+          <t>787</t>
         </is>
       </c>
       <c r="B74" s="0" t="inlineStr">
         <is>
-          <t>未处理</t>
+          <t>已处理</t>
         </is>
       </c>
       <c r="C74" s="0" t="inlineStr">
         <is>
-          <t>DUK-AL20</t>
+          <t>OPPO A30</t>
         </is>
       </c>
       <c r="D74" s="0" t="inlineStr">
         <is>
-          <t>HONOR</t>
+          <t>OPPO</t>
         </is>
       </c>
       <c r="E74" s="0" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>5.1.1</t>
         </is>
       </c>
       <c r="F74" s="0" t="inlineStr">
         <is>
-          <t>2.1.33</t>
+          <t xml:space="preserve">2.1.42-000764 </t>
         </is>
       </c>
       <c r="G74" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/207</t>
+          <t>http://118.25.173.30:9000/feedback/item/787</t>
         </is>
       </c>
       <c r="H74" s="0" t="inlineStr"/>
@@ -15385,14 +15401,14 @@
       </c>
       <c r="J74" s="0" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 涨跌幅以昨收盘为基准。</t>
+          <t>为什么登录不了?</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="0" t="inlineStr">
         <is>
-          <t>208</t>
+          <t>788</t>
         </is>
       </c>
       <c r="B75" s="0" t="inlineStr">
@@ -15402,30 +15418,34 @@
       </c>
       <c r="C75" s="0" t="inlineStr">
         <is>
-          <t>EDI-AL10</t>
+          <t>V1816A</t>
         </is>
       </c>
       <c r="D75" s="0" t="inlineStr">
         <is>
-          <t>HUAWEI</t>
+          <t>vivo</t>
         </is>
       </c>
       <c r="E75" s="0" t="inlineStr">
         <is>
-          <t>8.0.0</t>
+          <t>8.1.0</t>
         </is>
       </c>
       <c r="F75" s="0" t="inlineStr">
         <is>
-          <t>2.1.33</t>
+          <t xml:space="preserve">2.1.42-000764 </t>
         </is>
       </c>
       <c r="G75" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/208</t>
-        </is>
-      </c>
-      <c r="H75" s="0" t="inlineStr"/>
+          <t>http://118.25.173.30:9000/feedback/item/788</t>
+        </is>
+      </c>
+      <c r="H75" s="0" t="inlineStr">
+        <is>
+          <t>15540583034</t>
+        </is>
+      </c>
       <c r="I75" s="0" t="inlineStr">
         <is>
           <t>True</t>
@@ -15433,14 +15453,14 @@
       </c>
       <c r="J75" s="0" t="inlineStr">
         <is>
-          <t>逐笔浮盈不能自动刷新。</t>
+          <t>登不上去</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="0" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>789</t>
         </is>
       </c>
       <c r="B76" s="0" t="inlineStr">
@@ -15450,32 +15470,32 @@
       </c>
       <c r="C76" s="0" t="inlineStr">
         <is>
-          <t>EDI-AL10</t>
+          <t>OPPO A73</t>
         </is>
       </c>
       <c r="D76" s="0" t="inlineStr">
         <is>
-          <t>HUAWEI</t>
+          <t>OPPO</t>
         </is>
       </c>
       <c r="E76" s="0" t="inlineStr">
         <is>
-          <t>8.0.0</t>
+          <t>7.1.1</t>
         </is>
       </c>
       <c r="F76" s="0" t="inlineStr">
         <is>
-          <t>2.1.33</t>
+          <t xml:space="preserve">2.1.42-000764 </t>
         </is>
       </c>
       <c r="G76" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/209</t>
+          <t>http://118.25.173.30:9000/feedback/item/789</t>
         </is>
       </c>
       <c r="H76" s="0" t="inlineStr">
         <is>
-          <t>18602413366</t>
+          <t>15550870525</t>
         </is>
       </c>
       <c r="I76" s="0" t="inlineStr">
@@ -15485,49 +15505,49 @@
       </c>
       <c r="J76" s="0" t="inlineStr">
         <is>
-          <t>逐笔浮计算显示慢，不按刷新按钮不变化值。</t>
+          <t>不能登录！电脑手机都不能</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="0" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>790</t>
         </is>
       </c>
       <c r="B77" s="0" t="inlineStr">
         <is>
-          <t>未处理</t>
+          <t>已处理</t>
         </is>
       </c>
       <c r="C77" s="0" t="inlineStr">
         <is>
-          <t>iPhone 6s Plus</t>
+          <t>vivo X9Plus L</t>
         </is>
       </c>
       <c r="D77" s="0" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>vivo</t>
         </is>
       </c>
       <c r="E77" s="0" t="inlineStr">
         <is>
-          <t>12.4</t>
+          <t>7.1.2</t>
         </is>
       </c>
       <c r="F77" s="0" t="inlineStr">
         <is>
-          <t>2.1.32</t>
+          <t xml:space="preserve">2.1.42-000764 </t>
         </is>
       </c>
       <c r="G77" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/210</t>
+          <t>http://118.25.173.30:9000/feedback/item/790</t>
         </is>
       </c>
       <c r="H77" s="0" t="inlineStr">
         <is>
-          <t>17803891200</t>
+          <t>13820185936</t>
         </is>
       </c>
       <c r="I77" s="0" t="inlineStr">
@@ -15537,14 +15557,14 @@
       </c>
       <c r="J77" s="0" t="inlineStr">
         <is>
-          <t>比赛登陆在哪里勒？</t>
+          <t>登录不了</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="0" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>791</t>
         </is>
       </c>
       <c r="B78" s="0" t="inlineStr">
@@ -15554,27 +15574,27 @@
       </c>
       <c r="C78" s="0" t="inlineStr">
         <is>
-          <t>H60-L02</t>
+          <t>PADM00</t>
         </is>
       </c>
       <c r="D78" s="0" t="inlineStr">
         <is>
-          <t>Huawei</t>
+          <t>OPPO</t>
         </is>
       </c>
       <c r="E78" s="0" t="inlineStr">
         <is>
-          <t>6.0</t>
+          <t>8.1.0</t>
         </is>
       </c>
       <c r="F78" s="0" t="inlineStr">
         <is>
-          <t>2.1.33</t>
+          <t xml:space="preserve">2.1.44-000735 </t>
         </is>
       </c>
       <c r="G78" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/211</t>
+          <t>http://118.25.173.30:9000/feedback/item/791</t>
         </is>
       </c>
       <c r="H78" s="0" t="inlineStr"/>
@@ -15585,201 +15605,205 @@
       </c>
       <c r="J78" s="0" t="inlineStr">
         <is>
-          <t>每次登录都需要从新选择期货公司和输入帐号</t>
+          <t>登录不上去</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="0" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>792</t>
         </is>
       </c>
       <c r="B79" s="0" t="inlineStr">
         <is>
-          <t>未处理</t>
+          <t>已处理</t>
         </is>
       </c>
       <c r="C79" s="0" t="inlineStr">
         <is>
-          <t>LYA-AL10</t>
+          <t>OPPO R9s Plus</t>
         </is>
       </c>
       <c r="D79" s="0" t="inlineStr">
         <is>
-          <t>HUAWEI</t>
+          <t>OPPO</t>
         </is>
       </c>
       <c r="E79" s="0" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>6.0.1</t>
         </is>
       </c>
       <c r="F79" s="0" t="inlineStr">
         <is>
-          <t>2.1.33</t>
+          <t xml:space="preserve">2.1.42-000764 </t>
         </is>
       </c>
       <c r="G79" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/212</t>
-        </is>
-      </c>
-      <c r="H79" s="0" t="inlineStr"/>
+          <t>http://118.25.173.30:9000/feedback/item/792</t>
+        </is>
+      </c>
+      <c r="H79" s="0" t="inlineStr">
+        <is>
+          <t>13149744705</t>
+        </is>
+      </c>
       <c r="I79" s="0" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="J79" s="0" t="inlineStr">
         <is>
-          <t>闪退，经常闪退</t>
+          <t>登录不上，无法登录交易账户</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="0" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>793</t>
         </is>
       </c>
       <c r="B80" s="0" t="inlineStr">
         <is>
-          <t>未处理</t>
+          <t>已处理</t>
         </is>
       </c>
       <c r="C80" s="0" t="inlineStr">
         <is>
-          <t>iPhone 7 Plus</t>
+          <t>PACT00</t>
         </is>
       </c>
       <c r="D80" s="0" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>OPPO</t>
         </is>
       </c>
       <c r="E80" s="0" t="inlineStr">
         <is>
-          <t>12.2</t>
+          <t>8.1.0</t>
         </is>
       </c>
       <c r="F80" s="0" t="inlineStr">
         <is>
-          <t>2.1.33</t>
+          <t xml:space="preserve">2.1.42-000764 </t>
         </is>
       </c>
       <c r="G80" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/213</t>
+          <t>http://118.25.173.30:9000/feedback/item/793</t>
         </is>
       </c>
       <c r="H80" s="0" t="inlineStr">
         <is>
-          <t>15901663504</t>
+          <t>13327805935</t>
         </is>
       </c>
       <c r="I80" s="0" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="J80" s="0" t="inlineStr">
         <is>
-          <t>是否能增加豆粕菜粕价差谢谢！！！目前已经有比价，加上价差会更好！！</t>
+          <t>身份证最后一位是x登陆不了</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="0" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>794</t>
         </is>
       </c>
       <c r="B81" s="0" t="inlineStr">
         <is>
-          <t>未处理</t>
+          <t>已处理</t>
         </is>
       </c>
       <c r="C81" s="0" t="inlineStr">
         <is>
-          <t>iPhone 6s</t>
+          <t>STF-AL10</t>
         </is>
       </c>
       <c r="D81" s="0" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>HONOR</t>
         </is>
       </c>
       <c r="E81" s="0" t="inlineStr">
         <is>
-          <t>12.2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F81" s="0" t="inlineStr">
         <is>
-          <t>2.1.32</t>
+          <t xml:space="preserve">2.1.42-000764 </t>
         </is>
       </c>
       <c r="G81" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/214</t>
+          <t>http://118.25.173.30:9000/feedback/item/794</t>
         </is>
       </c>
       <c r="H81" s="0" t="inlineStr">
         <is>
-          <t>13363723180</t>
+          <t>17863810526</t>
         </is>
       </c>
       <c r="I81" s="0" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="J81" s="0" t="inlineStr">
         <is>
-          <t>找不到银期转帐入口，</t>
+          <t>登录老是失败 账号密码应该准确</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="0" t="inlineStr">
         <is>
-          <t>215</t>
+          <t>795</t>
         </is>
       </c>
       <c r="B82" s="0" t="inlineStr">
         <is>
-          <t>未处理</t>
+          <t>已处理</t>
         </is>
       </c>
       <c r="C82" s="0" t="inlineStr">
         <is>
-          <t>iPhone 6s</t>
+          <t>OPPO A73t</t>
         </is>
       </c>
       <c r="D82" s="0" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>OPPO</t>
         </is>
       </c>
       <c r="E82" s="0" t="inlineStr">
         <is>
-          <t>12.2</t>
+          <t>7.1.1</t>
         </is>
       </c>
       <c r="F82" s="0" t="inlineStr">
         <is>
-          <t>2.1.32</t>
+          <t xml:space="preserve">2.1.42-000764 </t>
         </is>
       </c>
       <c r="G82" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/215</t>
+          <t>http://118.25.173.30:9000/feedback/item/795</t>
         </is>
       </c>
       <c r="H82" s="0" t="inlineStr">
         <is>
-          <t>13363723180</t>
+          <t>15766323445</t>
         </is>
       </c>
       <c r="I82" s="0" t="inlineStr">
@@ -15789,51 +15813,47 @@
       </c>
       <c r="J82" s="0" t="inlineStr">
         <is>
-          <t>找不到银期转帐入口</t>
+          <t>一直无法登录，账号密码都是对的</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="0" t="inlineStr">
         <is>
-          <t>216</t>
+          <t>796</t>
         </is>
       </c>
       <c r="B83" s="0" t="inlineStr">
         <is>
-          <t>未处理</t>
+          <t>已处理</t>
         </is>
       </c>
       <c r="C83" s="0" t="inlineStr">
         <is>
-          <t>iPhone 7 Plus</t>
+          <t>MI MAX 2</t>
         </is>
       </c>
       <c r="D83" s="0" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>Xiaomi</t>
         </is>
       </c>
       <c r="E83" s="0" t="inlineStr">
         <is>
-          <t>12.3.1</t>
+          <t>7.1.1</t>
         </is>
       </c>
       <c r="F83" s="0" t="inlineStr">
         <is>
-          <t>2.1.32</t>
+          <t xml:space="preserve">2.1.42-000764 </t>
         </is>
       </c>
       <c r="G83" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/216</t>
-        </is>
-      </c>
-      <c r="H83" s="0" t="inlineStr">
-        <is>
-          <t>13360757080</t>
-        </is>
-      </c>
+          <t>http://118.25.173.30:9000/feedback/item/796</t>
+        </is>
+      </c>
+      <c r="H83" s="0" t="inlineStr"/>
       <c r="I83" s="0" t="inlineStr">
         <is>
           <t>False</t>
@@ -15841,155 +15861,147 @@
       </c>
       <c r="J83" s="0" t="inlineStr">
         <is>
-          <t>打开软件后闪退！无法交易</t>
+          <t>不能交易登录</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="0" t="inlineStr">
         <is>
-          <t>217</t>
+          <t>797</t>
         </is>
       </c>
       <c r="B84" s="0" t="inlineStr">
         <is>
-          <t>未处理</t>
+          <t>已处理</t>
         </is>
       </c>
       <c r="C84" s="0" t="inlineStr">
         <is>
-          <t>iPhone 7 Plus</t>
+          <t>Redmi Note 7 Pro</t>
         </is>
       </c>
       <c r="D84" s="0" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>xiaomi</t>
         </is>
       </c>
       <c r="E84" s="0" t="inlineStr">
         <is>
-          <t>12.3.1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F84" s="0" t="inlineStr">
         <is>
-          <t>2.1.32</t>
+          <t xml:space="preserve">2.1.42-000764 </t>
         </is>
       </c>
       <c r="G84" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/217</t>
+          <t>http://118.25.173.30:9000/feedback/item/797</t>
         </is>
       </c>
       <c r="H84" s="0" t="inlineStr">
         <is>
-          <t>13360757080</t>
+          <t>15889166980</t>
         </is>
       </c>
       <c r="I84" s="0" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J84" s="0" t="inlineStr">
         <is>
-          <t>打开软件后闪退，无法交易。</t>
+          <t>登录不了</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="0" t="inlineStr">
         <is>
-          <t>218</t>
+          <t>798</t>
         </is>
       </c>
       <c r="B85" s="0" t="inlineStr">
         <is>
-          <t>未处理</t>
+          <t>已处理</t>
         </is>
       </c>
       <c r="C85" s="0" t="inlineStr">
         <is>
-          <t>iPhone 7 Plus</t>
+          <t>M6 Note</t>
         </is>
       </c>
       <c r="D85" s="0" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>Meizu</t>
         </is>
       </c>
       <c r="E85" s="0" t="inlineStr">
         <is>
-          <t>12.3.1</t>
+          <t>7.1.2</t>
         </is>
       </c>
       <c r="F85" s="0" t="inlineStr">
         <is>
-          <t>2.1.32</t>
+          <t xml:space="preserve">2.1.42-000764 </t>
         </is>
       </c>
       <c r="G85" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/218</t>
-        </is>
-      </c>
-      <c r="H85" s="0" t="inlineStr">
-        <is>
-          <t>13360757080</t>
-        </is>
-      </c>
+          <t>http://118.25.173.30:9000/feedback/item/798</t>
+        </is>
+      </c>
+      <c r="H85" s="0" t="inlineStr"/>
       <c r="I85" s="0" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J85" s="0" t="inlineStr">
         <is>
-          <t>打开软件后闪退，无法交易。</t>
+          <t>为什么显示登录失败</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="0" t="inlineStr">
         <is>
-          <t>219</t>
+          <t>799</t>
         </is>
       </c>
       <c r="B86" s="0" t="inlineStr">
         <is>
-          <t>未处理</t>
+          <t>已处理</t>
         </is>
       </c>
       <c r="C86" s="0" t="inlineStr">
         <is>
-          <t>iPhone 7 Plus</t>
+          <t>PAR-AL00</t>
         </is>
       </c>
       <c r="D86" s="0" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>HUAWEI</t>
         </is>
       </c>
       <c r="E86" s="0" t="inlineStr">
         <is>
-          <t>12.3.1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F86" s="0" t="inlineStr">
         <is>
-          <t>2.1.33</t>
+          <t xml:space="preserve">2.1.42-000764 </t>
         </is>
       </c>
       <c r="G86" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/219</t>
-        </is>
-      </c>
-      <c r="H86" s="0" t="inlineStr">
-        <is>
-          <t>13360757080</t>
-        </is>
-      </c>
+          <t>http://118.25.173.30:9000/feedback/item/799</t>
+        </is>
+      </c>
+      <c r="H86" s="0" t="inlineStr"/>
       <c r="I86" s="0" t="inlineStr">
         <is>
           <t>True</t>
@@ -15997,49 +16009,49 @@
       </c>
       <c r="J86" s="0" t="inlineStr">
         <is>
-          <t>闪退！无法看行情和交易</t>
+          <t>登录不了，总显示登录失败</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="0" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>800</t>
         </is>
       </c>
       <c r="B87" s="0" t="inlineStr">
         <is>
-          <t>未处理</t>
+          <t>已处理</t>
         </is>
       </c>
       <c r="C87" s="0" t="inlineStr">
         <is>
-          <t>ALP-AL00</t>
+          <t>MI MAX 3</t>
         </is>
       </c>
       <c r="D87" s="0" t="inlineStr">
         <is>
-          <t>HUAWEI</t>
+          <t>Xiaomi</t>
         </is>
       </c>
       <c r="E87" s="0" t="inlineStr">
         <is>
-          <t>8.0.0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F87" s="0" t="inlineStr">
         <is>
-          <t>2.1.31</t>
+          <t>2.1.34</t>
         </is>
       </c>
       <c r="G87" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/220</t>
+          <t>http://118.25.173.30:9000/feedback/item/800</t>
         </is>
       </c>
       <c r="H87" s="0" t="inlineStr">
         <is>
-          <t>13928054880</t>
+          <t>18017838108</t>
         </is>
       </c>
       <c r="I87" s="0" t="inlineStr">
@@ -16049,49 +16061,49 @@
       </c>
       <c r="J87" s="0" t="inlineStr">
         <is>
-          <t>请增设“设置预警”</t>
+          <t>字，太小了</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="0" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>801</t>
         </is>
       </c>
       <c r="B88" s="0" t="inlineStr">
         <is>
-          <t>未处理</t>
+          <t>已处理</t>
         </is>
       </c>
       <c r="C88" s="0" t="inlineStr">
         <is>
-          <t>iPhone 6s Plus</t>
+          <t>MI 6</t>
         </is>
       </c>
       <c r="D88" s="0" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>Xiaomi</t>
         </is>
       </c>
       <c r="E88" s="0" t="inlineStr">
         <is>
-          <t>12.3.1</t>
+          <t>8.0.0</t>
         </is>
       </c>
       <c r="F88" s="0" t="inlineStr">
         <is>
-          <t>2.1.33</t>
+          <t xml:space="preserve">2.1.42-000764 </t>
         </is>
       </c>
       <c r="G88" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/221</t>
+          <t>http://118.25.173.30:9000/feedback/item/801</t>
         </is>
       </c>
       <c r="H88" s="0" t="inlineStr">
         <is>
-          <t>15602380153</t>
+          <t>18976573036</t>
         </is>
       </c>
       <c r="I88" s="0" t="inlineStr">
@@ -16101,14 +16113,14 @@
       </c>
       <c r="J88" s="0" t="inlineStr">
         <is>
-          <t>你们软件的交易界面的买一价卖一价和买量一卖量一应该竖排才好看，这样横排很乱，很难对比就是买一价上面是卖一价，买一量上面是卖一量，竖排列排，人家文华财经一直这样排，你们应该参考。\r\n\r\n还有你们的软件应该支持后台运行才好啊，每次打开软件不久，然后玩一下qq，你们的软件就自动退出了，下次打开又要重新登录，你们应该给个设置，选择后台运行时间长短，一小时还是2，6，12，24小时还是永久，我就喜欢永久，不然每次登录太麻烦太浪费时间，希望你们能改进</t>
+          <t>账号一直登录不上</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="0" t="inlineStr">
         <is>
-          <t>222</t>
+          <t>802</t>
         </is>
       </c>
       <c r="B89" s="0" t="inlineStr">
@@ -16118,7 +16130,7 @@
       </c>
       <c r="C89" s="0" t="inlineStr">
         <is>
-          <t>iPhone 6s Plus</t>
+          <t>iPhone 7 Plus</t>
         </is>
       </c>
       <c r="D89" s="0" t="inlineStr">
@@ -16128,20 +16140,24 @@
       </c>
       <c r="E89" s="0" t="inlineStr">
         <is>
-          <t>12.1.2</t>
+          <t>12.3.1</t>
         </is>
       </c>
       <c r="F89" s="0" t="inlineStr">
         <is>
-          <t>2.1.33</t>
+          <t xml:space="preserve">2.1.43-000735 </t>
         </is>
       </c>
       <c r="G89" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/222</t>
-        </is>
-      </c>
-      <c r="H89" s="0" t="inlineStr"/>
+          <t>http://118.25.173.30:9000/feedback/item/802</t>
+        </is>
+      </c>
+      <c r="H89" s="0" t="inlineStr">
+        <is>
+          <t>13394939235</t>
+        </is>
+      </c>
       <c r="I89" s="0" t="inlineStr">
         <is>
           <t>True</t>
@@ -16149,14 +16165,14 @@
       </c>
       <c r="J89" s="0" t="inlineStr">
         <is>
-          <t>SGX A50期貨主連 沒有顯示價錢</t>
+          <t>无法交易</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="0" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>803</t>
         </is>
       </c>
       <c r="B90" s="0" t="inlineStr">
@@ -16166,45 +16182,45 @@
       </c>
       <c r="C90" s="0" t="inlineStr">
         <is>
-          <t>iPhone 6s Plus</t>
+          <t>JDN2-W09HN</t>
         </is>
       </c>
       <c r="D90" s="0" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>HONOR</t>
         </is>
       </c>
       <c r="E90" s="0" t="inlineStr">
         <is>
-          <t>12.1.2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F90" s="0" t="inlineStr">
         <is>
-          <t>2.1.33</t>
+          <t xml:space="preserve">2.1.44-000735 </t>
         </is>
       </c>
       <c r="G90" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/223</t>
+          <t>http://118.25.173.30:9000/feedback/item/803</t>
         </is>
       </c>
       <c r="H90" s="0" t="inlineStr"/>
       <c r="I90" s="0" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J90" s="0" t="inlineStr">
         <is>
-          <t>SGX A50期貨主連 沒有顯示價錢</t>
+          <t>荣耀平板5，安卓9.0登录提示，无采集信息，不让登录。</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="0" t="inlineStr">
         <is>
-          <t>224</t>
+          <t>804</t>
         </is>
       </c>
       <c r="B91" s="0" t="inlineStr">
@@ -16214,17 +16230,17 @@
       </c>
       <c r="C91" s="0" t="inlineStr">
         <is>
-          <t>iPhone 6 Plus</t>
+          <t>vivo X20</t>
         </is>
       </c>
       <c r="D91" s="0" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>vivo</t>
         </is>
       </c>
       <c r="E91" s="0" t="inlineStr">
         <is>
-          <t>11.4.1</t>
+          <t>8.1.0</t>
         </is>
       </c>
       <c r="F91" s="0" t="inlineStr">
@@ -16234,81 +16250,77 @@
       </c>
       <c r="G91" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/224</t>
+          <t>http://118.25.173.30:9000/feedback/item/804</t>
         </is>
       </c>
       <c r="H91" s="0" t="inlineStr">
         <is>
-          <t>15901485045</t>
+          <t>1804315422</t>
         </is>
       </c>
       <c r="I91" s="0" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J91" s="0" t="inlineStr">
         <is>
-          <t>1无法转账\r\n2现有仓位无法显示</t>
+          <t>登录不了</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="0" t="inlineStr">
         <is>
-          <t>225</t>
+          <t>805</t>
         </is>
       </c>
       <c r="B92" s="0" t="inlineStr">
         <is>
-          <t>已处理</t>
+          <t>未处理</t>
         </is>
       </c>
       <c r="C92" s="0" t="inlineStr">
         <is>
-          <t>MI 8</t>
+          <t>DLI-AL10</t>
         </is>
       </c>
       <c r="D92" s="0" t="inlineStr">
         <is>
-          <t>Xiaomi</t>
+          <t>HONOR</t>
         </is>
       </c>
       <c r="E92" s="0" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="F92" s="0" t="inlineStr">
         <is>
-          <t>2.1.33</t>
+          <t xml:space="preserve">2.1.44-000735 </t>
         </is>
       </c>
       <c r="G92" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/225</t>
-        </is>
-      </c>
-      <c r="H92" s="0" t="inlineStr">
-        <is>
-          <t>13083736099</t>
-        </is>
-      </c>
+          <t>http://118.25.173.30:9000/feedback/item/805</t>
+        </is>
+      </c>
+      <c r="H92" s="0" t="inlineStr"/>
       <c r="I92" s="0" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J92" s="0" t="inlineStr">
         <is>
-          <t>闪退闪退闪退，频繁闪退</t>
+          <t>在交易的时候，卡顿，交易结束了，上线成功了</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="0" t="inlineStr">
         <is>
-          <t>226</t>
+          <t>806</t>
         </is>
       </c>
       <c r="B93" s="0" t="inlineStr">
@@ -16318,34 +16330,30 @@
       </c>
       <c r="C93" s="0" t="inlineStr">
         <is>
-          <t>MI 9</t>
+          <t>DLI-AL10</t>
         </is>
       </c>
       <c r="D93" s="0" t="inlineStr">
         <is>
-          <t>Xiaomi</t>
+          <t>HONOR</t>
         </is>
       </c>
       <c r="E93" s="0" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="F93" s="0" t="inlineStr">
         <is>
-          <t>2.1.33</t>
+          <t xml:space="preserve">2.1.44-000735 </t>
         </is>
       </c>
       <c r="G93" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/226</t>
-        </is>
-      </c>
-      <c r="H93" s="0" t="inlineStr">
-        <is>
-          <t>15168773577</t>
-        </is>
-      </c>
+          <t>http://118.25.173.30:9000/feedback/item/806</t>
+        </is>
+      </c>
+      <c r="H93" s="0" t="inlineStr"/>
       <c r="I93" s="0" t="inlineStr">
         <is>
           <t>False</t>
@@ -16353,14 +16361,14 @@
       </c>
       <c r="J93" s="0" t="inlineStr">
         <is>
-          <t>软件不稳定，老是闪退</t>
+          <t>在缩放图上，灵敏度偏低，有时候直接没有反应</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="0" t="inlineStr">
         <is>
-          <t>227</t>
+          <t>807</t>
         </is>
       </c>
       <c r="B94" s="0" t="inlineStr">
@@ -16370,49 +16378,45 @@
       </c>
       <c r="C94" s="0" t="inlineStr">
         <is>
-          <t>OC105</t>
+          <t>DLI-AL10</t>
         </is>
       </c>
       <c r="D94" s="0" t="inlineStr">
         <is>
-          <t>SMARTISAN</t>
+          <t>HONOR</t>
         </is>
       </c>
       <c r="E94" s="0" t="inlineStr">
         <is>
-          <t>7.1.2</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="F94" s="0" t="inlineStr">
         <is>
-          <t>2.1.33</t>
+          <t xml:space="preserve">2.1.44-000735 </t>
         </is>
       </c>
       <c r="G94" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/227</t>
-        </is>
-      </c>
-      <c r="H94" s="0" t="inlineStr">
-        <is>
-          <t>17717025703</t>
-        </is>
-      </c>
+          <t>http://118.25.173.30:9000/feedback/item/807</t>
+        </is>
+      </c>
+      <c r="H94" s="0" t="inlineStr"/>
       <c r="I94" s="0" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J94" s="0" t="inlineStr">
         <is>
-          <t>软件总是闪退，每次都要之前启动2次才能进去软件，有几次根本无法进去界面，闪电退出</t>
+          <t>交易到最后一分钟就容易卡死登不上去，开盘后也是卡顿一阵子，尤其是确认结算单一分钟左右才能登录上去</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="0" t="inlineStr">
         <is>
-          <t>228</t>
+          <t>808</t>
         </is>
       </c>
       <c r="B95" s="0" t="inlineStr">
@@ -16422,34 +16426,30 @@
       </c>
       <c r="C95" s="0" t="inlineStr">
         <is>
-          <t>iPhone X</t>
+          <t>ANE-AL00</t>
         </is>
       </c>
       <c r="D95" s="0" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>HUAWEI</t>
         </is>
       </c>
       <c r="E95" s="0" t="inlineStr">
         <is>
-          <t>12.1.2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F95" s="0" t="inlineStr">
         <is>
-          <t>2.1.33</t>
+          <t xml:space="preserve">2.1.44-000735 </t>
         </is>
       </c>
       <c r="G95" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/228</t>
-        </is>
-      </c>
-      <c r="H95" s="0" t="inlineStr">
-        <is>
-          <t>13610938998</t>
-        </is>
-      </c>
+          <t>http://118.25.173.30:9000/feedback/item/808</t>
+        </is>
+      </c>
+      <c r="H95" s="0" t="inlineStr"/>
       <c r="I95" s="0" t="inlineStr">
         <is>
           <t>False</t>
@@ -16457,14 +16457,14 @@
       </c>
       <c r="J95" s="0" t="inlineStr">
         <is>
-          <t>怎么找回密码啊？当时注册的时候没让输密码啊</t>
+          <t>建议可以把主力合约那栏设置为可选择删除功能，很多没有成交量的合约在里面碍事</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="0" t="inlineStr">
         <is>
-          <t>229</t>
+          <t>809</t>
         </is>
       </c>
       <c r="B96" s="0" t="inlineStr">
@@ -16474,27 +16474,27 @@
       </c>
       <c r="C96" s="0" t="inlineStr">
         <is>
-          <t>MI MAX 2</t>
+          <t>ANE-AL00</t>
         </is>
       </c>
       <c r="D96" s="0" t="inlineStr">
         <is>
-          <t>Xiaomi</t>
+          <t>HUAWEI</t>
         </is>
       </c>
       <c r="E96" s="0" t="inlineStr">
         <is>
-          <t>7.1.1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F96" s="0" t="inlineStr">
         <is>
-          <t>2.1.33</t>
+          <t xml:space="preserve">2.1.44-000735 </t>
         </is>
       </c>
       <c r="G96" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/229</t>
+          <t>http://118.25.173.30:9000/feedback/item/809</t>
         </is>
       </c>
       <c r="H96" s="0" t="inlineStr"/>
@@ -16505,14 +16505,14 @@
       </c>
       <c r="J96" s="0" t="inlineStr">
         <is>
-          <t>多账号登陆只能记住最后一次登陆的账号，下次打开软件，还是得重新输入登陆多账号信息</t>
+          <t>建议涨跌幅能排序</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="0" t="inlineStr">
         <is>
-          <t>230</t>
+          <t>810</t>
         </is>
       </c>
       <c r="B97" s="0" t="inlineStr">
@@ -16522,45 +16522,45 @@
       </c>
       <c r="C97" s="0" t="inlineStr">
         <is>
-          <t>OD103</t>
+          <t>DUK-AL20</t>
         </is>
       </c>
       <c r="D97" s="0" t="inlineStr">
         <is>
-          <t>SMARTISAN</t>
+          <t>HONOR</t>
         </is>
       </c>
       <c r="E97" s="0" t="inlineStr">
         <is>
-          <t>7.1.1</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="F97" s="0" t="inlineStr">
         <is>
-          <t>2.1.33</t>
+          <t xml:space="preserve">2.1.42-000764 </t>
         </is>
       </c>
       <c r="G97" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/230</t>
+          <t>http://118.25.173.30:9000/feedback/item/810</t>
         </is>
       </c>
       <c r="H97" s="0" t="inlineStr"/>
       <c r="I97" s="0" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="J97" s="0" t="inlineStr">
         <is>
-          <t>贵软件其他都好，就是k线图太难看，请借鉴一下文华财经和博易大师的k线图，希望能有所改进。</t>
+          <t>这个大赛学生证图片无法上传</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="0" t="inlineStr">
         <is>
-          <t>231</t>
+          <t>811</t>
         </is>
       </c>
       <c r="B98" s="0" t="inlineStr">
@@ -16570,34 +16570,30 @@
       </c>
       <c r="C98" s="0" t="inlineStr">
         <is>
-          <t>FRD-AL00</t>
+          <t>DUK-AL20</t>
         </is>
       </c>
       <c r="D98" s="0" t="inlineStr">
         <is>
-          <t>honor</t>
+          <t>HONOR</t>
         </is>
       </c>
       <c r="E98" s="0" t="inlineStr">
         <is>
-          <t>8.0.0</t>
+          <t>7.0</t>
         </is>
       </c>
       <c r="F98" s="0" t="inlineStr">
         <is>
-          <t>2.1.33</t>
+          <t xml:space="preserve">2.1.42-000764 </t>
         </is>
       </c>
       <c r="G98" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/231</t>
-        </is>
-      </c>
-      <c r="H98" s="0" t="inlineStr">
-        <is>
-          <t>18092660297</t>
-        </is>
-      </c>
+          <t>http://118.25.173.30:9000/feedback/item/811</t>
+        </is>
+      </c>
+      <c r="H98" s="0" t="inlineStr"/>
       <c r="I98" s="0" t="inlineStr">
         <is>
           <t>True</t>
@@ -16605,14 +16601,14 @@
       </c>
       <c r="J98" s="0" t="inlineStr">
         <is>
-          <t>上面的报价栏请调整为卖价卖量上面，买价买量下面，可以取消最新价和现量因为没用</t>
+          <t>郑商所杯大赛学生证无法添加图片</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="0" t="inlineStr">
         <is>
-          <t>232</t>
+          <t>812</t>
         </is>
       </c>
       <c r="B99" s="0" t="inlineStr">
@@ -16622,7 +16618,7 @@
       </c>
       <c r="C99" s="0" t="inlineStr">
         <is>
-          <t>PBCM10</t>
+          <t>PACM00</t>
         </is>
       </c>
       <c r="D99" s="0" t="inlineStr">
@@ -16637,30 +16633,30 @@
       </c>
       <c r="F99" s="0" t="inlineStr">
         <is>
-          <t>2.1.33</t>
+          <t xml:space="preserve">2.1.42-000764 </t>
         </is>
       </c>
       <c r="G99" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/232</t>
+          <t>http://118.25.173.30:9000/feedback/item/812</t>
         </is>
       </c>
       <c r="H99" s="0" t="inlineStr"/>
       <c r="I99" s="0" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="J99" s="0" t="inlineStr">
         <is>
-          <t>什么时候可以设置成昨收盘价来现实涨跌幅呀</t>
+          <t>大赛界面空白</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="0" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>813</t>
         </is>
       </c>
       <c r="B100" s="0" t="inlineStr">
@@ -16670,7 +16666,7 @@
       </c>
       <c r="C100" s="0" t="inlineStr">
         <is>
-          <t>iPhone XR</t>
+          <t>iPhone 6s</t>
         </is>
       </c>
       <c r="D100" s="0" t="inlineStr">
@@ -16685,30 +16681,30 @@
       </c>
       <c r="F100" s="0" t="inlineStr">
         <is>
-          <t>2.1.33</t>
+          <t xml:space="preserve">2.1.44-000735 </t>
         </is>
       </c>
       <c r="G100" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/233</t>
+          <t>http://118.25.173.30:9000/feedback/item/813</t>
         </is>
       </c>
       <c r="H100" s="0" t="inlineStr"/>
       <c r="I100" s="0" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J100" s="0" t="inlineStr">
         <is>
-          <t>我设置的150均线，当我左右滑动K线时，均线会上下移动，相对于K线的位置不固定</t>
+          <t>建议不要开启所有主图指标，增加指标固定选择功能，谢谢！</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="0" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>814</t>
         </is>
       </c>
       <c r="B101" s="0" t="inlineStr">
@@ -16718,49 +16714,45 @@
       </c>
       <c r="C101" s="0" t="inlineStr">
         <is>
-          <t>iPhone 6s Plus</t>
+          <t>MI MAX 2</t>
         </is>
       </c>
       <c r="D101" s="0" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>Xiaomi</t>
         </is>
       </c>
       <c r="E101" s="0" t="inlineStr">
         <is>
-          <t>12.3.1</t>
+          <t>7.1.1</t>
         </is>
       </c>
       <c r="F101" s="0" t="inlineStr">
         <is>
-          <t>2.1.33</t>
+          <t xml:space="preserve">2.1.44-000735 </t>
         </is>
       </c>
       <c r="G101" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/234</t>
-        </is>
-      </c>
-      <c r="H101" s="0" t="inlineStr">
-        <is>
-          <t>18771955346</t>
-        </is>
-      </c>
+          <t>http://118.25.173.30:9000/feedback/item/814</t>
+        </is>
+      </c>
+      <c r="H101" s="0" t="inlineStr"/>
       <c r="I101" s="0" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="J101" s="0" t="inlineStr">
         <is>
-          <t>没有接入国泰君安</t>
+          <t>分时图里的成交量和持仓量交集在一块时持仓量就看不出来是加是减，建议分时图里改一个持仓量线的颜色</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="0" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>815</t>
         </is>
       </c>
       <c r="B102" s="0" t="inlineStr">
@@ -16770,45 +16762,49 @@
       </c>
       <c r="C102" s="0" t="inlineStr">
         <is>
-          <t>OC105</t>
+          <t>MIX 2S</t>
         </is>
       </c>
       <c r="D102" s="0" t="inlineStr">
         <is>
-          <t>SMARTISAN</t>
+          <t>Xiaomi</t>
         </is>
       </c>
       <c r="E102" s="0" t="inlineStr">
         <is>
-          <t>7.1.2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F102" s="0" t="inlineStr">
         <is>
-          <t>2.1.33</t>
+          <t xml:space="preserve">2.1.44-000735 </t>
         </is>
       </c>
       <c r="G102" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/235</t>
-        </is>
-      </c>
-      <c r="H102" s="0" t="inlineStr"/>
+          <t>http://118.25.173.30:9000/feedback/item/815</t>
+        </is>
+      </c>
+      <c r="H102" s="0" t="inlineStr">
+        <is>
+          <t>18656592999</t>
+        </is>
+      </c>
       <c r="I102" s="0" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J102" s="0" t="inlineStr">
         <is>
-          <t>频繁闪退，太影响操作了</t>
+          <t>为什么视频的时候就闪退？</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="0" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>816</t>
         </is>
       </c>
       <c r="B103" s="0" t="inlineStr">
@@ -16818,7 +16814,7 @@
       </c>
       <c r="C103" s="0" t="inlineStr">
         <is>
-          <t>ALP-AL00</t>
+          <t>PAR-AL00</t>
         </is>
       </c>
       <c r="D103" s="0" t="inlineStr">
@@ -16833,17 +16829,17 @@
       </c>
       <c r="F103" s="0" t="inlineStr">
         <is>
-          <t>2.1.33</t>
+          <t xml:space="preserve">2.1.42-000764 </t>
         </is>
       </c>
       <c r="G103" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/236</t>
+          <t>http://118.25.173.30:9000/feedback/item/816</t>
         </is>
       </c>
       <c r="H103" s="0" t="inlineStr">
         <is>
-          <t>15965858578</t>
+          <t>17640146190</t>
         </is>
       </c>
       <c r="I103" s="0" t="inlineStr">
@@ -16853,14 +16849,14 @@
       </c>
       <c r="J103" s="0" t="inlineStr">
         <is>
-          <t>登录不上</t>
+          <t>比赛报名无法上传学生证照片！</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="0" t="inlineStr">
         <is>
-          <t>237</t>
+          <t>817</t>
         </is>
       </c>
       <c r="B104" s="0" t="inlineStr">
@@ -16870,30 +16866,34 @@
       </c>
       <c r="C104" s="0" t="inlineStr">
         <is>
-          <t>Redmi 5 Plus</t>
+          <t>PAR-AL00</t>
         </is>
       </c>
       <c r="D104" s="0" t="inlineStr">
         <is>
-          <t>xiaomi</t>
+          <t>HUAWEI</t>
         </is>
       </c>
       <c r="E104" s="0" t="inlineStr">
         <is>
-          <t>8.1.0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F104" s="0" t="inlineStr">
         <is>
-          <t>2.1.33</t>
+          <t xml:space="preserve">2.1.42-000764 </t>
         </is>
       </c>
       <c r="G104" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/237</t>
-        </is>
-      </c>
-      <c r="H104" s="0" t="inlineStr"/>
+          <t>http://118.25.173.30:9000/feedback/item/817</t>
+        </is>
+      </c>
+      <c r="H104" s="0" t="inlineStr">
+        <is>
+          <t>17640146190</t>
+        </is>
+      </c>
       <c r="I104" s="0" t="inlineStr">
         <is>
           <t>False</t>
@@ -16901,14 +16901,14 @@
       </c>
       <c r="J104" s="0" t="inlineStr">
         <is>
-          <t>更新了老是闪退，你们是越改越差啊？！</t>
+          <t>大赛报名无法上传学生证扫描件</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="0" t="inlineStr">
         <is>
-          <t>238</t>
+          <t>818</t>
         </is>
       </c>
       <c r="B105" s="0" t="inlineStr">
@@ -16918,45 +16918,49 @@
       </c>
       <c r="C105" s="0" t="inlineStr">
         <is>
-          <t>MIX 2</t>
+          <t>iPhone XR</t>
         </is>
       </c>
       <c r="D105" s="0" t="inlineStr">
         <is>
-          <t>Xiaomi</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="E105" s="0" t="inlineStr">
         <is>
-          <t>8.0.0</t>
+          <t>12.3.1</t>
         </is>
       </c>
       <c r="F105" s="0" t="inlineStr">
         <is>
-          <t>2.1.33</t>
+          <t xml:space="preserve">2.1.44-000735 </t>
         </is>
       </c>
       <c r="G105" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/238</t>
-        </is>
-      </c>
-      <c r="H105" s="0" t="inlineStr"/>
+          <t>http://118.25.173.30:9000/feedback/item/818</t>
+        </is>
+      </c>
+      <c r="H105" s="0" t="inlineStr">
+        <is>
+          <t>18600646688</t>
+        </is>
+      </c>
       <c r="I105" s="0" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J105" s="0" t="inlineStr">
         <is>
-          <t>点击关于查看版本信息时闪退</t>
+          <t>为什么经常登陆超时、在晚上9点左右的时间</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="0" t="inlineStr">
         <is>
-          <t>239</t>
+          <t>819</t>
         </is>
       </c>
       <c r="B106" s="0" t="inlineStr">
@@ -16966,27 +16970,27 @@
       </c>
       <c r="C106" s="0" t="inlineStr">
         <is>
-          <t>PBAM00</t>
+          <t>BKL-AL20</t>
         </is>
       </c>
       <c r="D106" s="0" t="inlineStr">
         <is>
-          <t>OPPO</t>
+          <t>HONOR</t>
         </is>
       </c>
       <c r="E106" s="0" t="inlineStr">
         <is>
-          <t>8.1.0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F106" s="0" t="inlineStr">
         <is>
-          <t>2.1.33</t>
+          <t xml:space="preserve">2.1.44-000735 </t>
         </is>
       </c>
       <c r="G106" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/239</t>
+          <t>http://118.25.173.30:9000/feedback/item/819</t>
         </is>
       </c>
       <c r="H106" s="0" t="inlineStr"/>
@@ -16997,14 +17001,14 @@
       </c>
       <c r="J106" s="0" t="inlineStr">
         <is>
-          <t>您好，k线为什么没有30均线和60均线？（手机）</t>
+          <t>进入系统太慢；自选股会被清空；搜索品种找不到，系统不稳定。</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="0" t="inlineStr">
         <is>
-          <t>240</t>
+          <t>820</t>
         </is>
       </c>
       <c r="B107" s="0" t="inlineStr">
@@ -17014,27 +17018,27 @@
       </c>
       <c r="C107" s="0" t="inlineStr">
         <is>
-          <t>SM-G9008V</t>
+          <t>ANE-AL00</t>
         </is>
       </c>
       <c r="D107" s="0" t="inlineStr">
         <is>
-          <t>samsung</t>
+          <t>HUAWEI</t>
         </is>
       </c>
       <c r="E107" s="0" t="inlineStr">
         <is>
-          <t>6.0.1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F107" s="0" t="inlineStr">
         <is>
-          <t>2.1.34</t>
+          <t xml:space="preserve">2.1.44-000735 </t>
         </is>
       </c>
       <c r="G107" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/240</t>
+          <t>http://118.25.173.30:9000/feedback/item/820</t>
         </is>
       </c>
       <c r="H107" s="0" t="inlineStr"/>
@@ -17045,14 +17049,14 @@
       </c>
       <c r="J107" s="0" t="inlineStr">
         <is>
-          <t>1.主力排名，所列字段可以设定，比如成交量排序，现在旁边字段固定是涨幅，而涨跌看上去更直观，另外涨跌建议增加和昨收盘的比较。2.k线显示密度建议能记忆上次的。3.目前的MA指标参数，40和60的是无效的。4.建议左右划屏可以切换合约。5.建议增加夜盘主力板块以及排序。6.交易服务器能不能开放得早一点。7.建议参照随身行和掌上财富，可以查询可开手数。8.银期转账可转出数目要和期货公司统一有效。</t>
+          <t>建议设置一键清仓功能</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="0" t="inlineStr">
         <is>
-          <t>241</t>
+          <t>821</t>
         </is>
       </c>
       <c r="B108" s="0" t="inlineStr">
@@ -17062,30 +17066,34 @@
       </c>
       <c r="C108" s="0" t="inlineStr">
         <is>
-          <t>SM-J7108</t>
+          <t>iPhone 7</t>
         </is>
       </c>
       <c r="D108" s="0" t="inlineStr">
         <is>
-          <t>samsung</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="E108" s="0" t="inlineStr">
         <is>
-          <t>6.0.1</t>
+          <t>12.3.1</t>
         </is>
       </c>
       <c r="F108" s="0" t="inlineStr">
         <is>
-          <t>2.1.34</t>
+          <t xml:space="preserve">2.1.44-000735 </t>
         </is>
       </c>
       <c r="G108" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/241</t>
-        </is>
-      </c>
-      <c r="H108" s="0" t="inlineStr"/>
+          <t>http://118.25.173.30:9000/feedback/item/821</t>
+        </is>
+      </c>
+      <c r="H108" s="0" t="inlineStr">
+        <is>
+          <t>18337329019</t>
+        </is>
+      </c>
       <c r="I108" s="0" t="inlineStr">
         <is>
           <t>False</t>
@@ -17093,14 +17101,14 @@
       </c>
       <c r="J108" s="0" t="inlineStr">
         <is>
-          <t>为什么不可以设置删除指标呢？手机软件本来屏幕就小，界面被指标沾了一半，还不能删除。现在就是，客户不想看指标也得看，你为你们想让客户看。</t>
+          <t>账户有一千多，怎么出金</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="0" t="inlineStr">
         <is>
-          <t>242</t>
+          <t>822</t>
         </is>
       </c>
       <c r="B109" s="0" t="inlineStr">
@@ -17110,7 +17118,7 @@
       </c>
       <c r="C109" s="0" t="inlineStr">
         <is>
-          <t>MI 6X</t>
+          <t>Redmi Note 7</t>
         </is>
       </c>
       <c r="D109" s="0" t="inlineStr">
@@ -17120,17 +17128,17 @@
       </c>
       <c r="E109" s="0" t="inlineStr">
         <is>
-          <t>8.1.0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F109" s="0" t="inlineStr">
         <is>
-          <t>2.1.34</t>
+          <t xml:space="preserve">2.1.44-000735 </t>
         </is>
       </c>
       <c r="G109" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/242</t>
+          <t>http://118.25.173.30:9000/feedback/item/822</t>
         </is>
       </c>
       <c r="H109" s="0" t="inlineStr"/>
@@ -17141,14 +17149,14 @@
       </c>
       <c r="J109" s="0" t="inlineStr">
         <is>
-          <t>无法登录 怎么办?</t>
+          <t>套利行情最新价和成交明细价格不一样</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="0" t="inlineStr">
         <is>
-          <t>243</t>
+          <t>823</t>
         </is>
       </c>
       <c r="B110" s="0" t="inlineStr">
@@ -17158,34 +17166,30 @@
       </c>
       <c r="C110" s="0" t="inlineStr">
         <is>
-          <t>iPad Mini 4 (WiFi)</t>
+          <t>Redmi Note 7</t>
         </is>
       </c>
       <c r="D110" s="0" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>xiaomi</t>
         </is>
       </c>
       <c r="E110" s="0" t="inlineStr">
         <is>
-          <t>12.3.1</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F110" s="0" t="inlineStr">
         <is>
-          <t>2.1.33</t>
+          <t xml:space="preserve">2.1.44-000735 </t>
         </is>
       </c>
       <c r="G110" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/243</t>
-        </is>
-      </c>
-      <c r="H110" s="0" t="inlineStr">
-        <is>
-          <t>18017838108</t>
-        </is>
-      </c>
+          <t>http://118.25.173.30:9000/feedback/item/823</t>
+        </is>
+      </c>
+      <c r="H110" s="0" t="inlineStr"/>
       <c r="I110" s="0" t="inlineStr">
         <is>
           <t>False</t>
@@ -17193,14 +17197,14 @@
       </c>
       <c r="J110" s="0" t="inlineStr">
         <is>
-          <t>大陆期货字太小了。一徳期货价格 东方证券期货字很大</t>
+          <t xml:space="preserve">运存占用 和同类比较占用多一倍不止  </t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="0" t="inlineStr">
         <is>
-          <t>244</t>
+          <t>824</t>
         </is>
       </c>
       <c r="B111" s="0" t="inlineStr">
@@ -17210,45 +17214,45 @@
       </c>
       <c r="C111" s="0" t="inlineStr">
         <is>
-          <t>BND-AL10</t>
+          <t>Redmi Note 7</t>
         </is>
       </c>
       <c r="D111" s="0" t="inlineStr">
         <is>
-          <t>HONOR</t>
+          <t>xiaomi</t>
         </is>
       </c>
       <c r="E111" s="0" t="inlineStr">
         <is>
-          <t>8.0.0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="F111" s="0" t="inlineStr">
         <is>
-          <t>2.1.34</t>
+          <t xml:space="preserve">2.1.44-000735 </t>
         </is>
       </c>
       <c r="G111" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/244</t>
+          <t>http://118.25.173.30:9000/feedback/item/824</t>
         </is>
       </c>
       <c r="H111" s="0" t="inlineStr"/>
       <c r="I111" s="0" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="J111" s="0" t="inlineStr">
         <is>
-          <t>副图可以删除吗</t>
+          <t>刚才好像忘记传图了   易星运存占用比同类大很多  翻倍还不止</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="0" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>825</t>
         </is>
       </c>
       <c r="B112" s="0" t="inlineStr">
@@ -17258,27 +17262,27 @@
       </c>
       <c r="C112" s="0" t="inlineStr">
         <is>
-          <t>OPPO R9m</t>
+          <t>iPhone_8</t>
         </is>
       </c>
       <c r="D112" s="0" t="inlineStr">
         <is>
-          <t>OPPO</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="E112" s="0" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>11.4.1</t>
         </is>
       </c>
       <c r="F112" s="0" t="inlineStr">
         <is>
-          <t>2.1.34</t>
+          <t xml:space="preserve">2.1.44-000735 </t>
         </is>
       </c>
       <c r="G112" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/245</t>
+          <t>http://118.25.173.30:9000/feedback/item/825</t>
         </is>
       </c>
       <c r="H112" s="0" t="inlineStr"/>
@@ -17289,14 +17293,14 @@
       </c>
       <c r="J112" s="0" t="inlineStr">
         <is>
-          <t>无法登陆期货公司账户</t>
+          <t>您好，请问忘记密码怎么找回</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="0" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>826</t>
         </is>
       </c>
       <c r="B113" s="0" t="inlineStr">
@@ -17306,30 +17310,34 @@
       </c>
       <c r="C113" s="0" t="inlineStr">
         <is>
-          <t>OPPO R9m</t>
+          <t>ZTE BV0730</t>
         </is>
       </c>
       <c r="D113" s="0" t="inlineStr">
         <is>
-          <t>OPPO</t>
+          <t>ZTE</t>
         </is>
       </c>
       <c r="E113" s="0" t="inlineStr">
         <is>
-          <t>5.1</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="F113" s="0" t="inlineStr">
         <is>
-          <t>2.1.34</t>
+          <t xml:space="preserve">2.1.44-000735 </t>
         </is>
       </c>
       <c r="G113" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/246</t>
-        </is>
-      </c>
-      <c r="H113" s="0" t="inlineStr"/>
+          <t>http://118.25.173.30:9000/feedback/item/826</t>
+        </is>
+      </c>
+      <c r="H113" s="0" t="inlineStr">
+        <is>
+          <t>15201304594</t>
+        </is>
+      </c>
       <c r="I113" s="0" t="inlineStr">
         <is>
           <t>False</t>
@@ -17337,14 +17345,14 @@
       </c>
       <c r="J113" s="0" t="inlineStr">
         <is>
-          <t>无法登陆期货交易账户</t>
+          <t>用的这么流畅的软件竟然不能支持股票期权，太失望了，如果能的话，有希望变成同花顺的地位。加油吧，在同花顺期权交易出来之前弄出来</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="0" t="inlineStr">
         <is>
-          <t>247</t>
+          <t>827</t>
         </is>
       </c>
       <c r="B114" s="0" t="inlineStr">
@@ -17354,17 +17362,17 @@
       </c>
       <c r="C114" s="0" t="inlineStr">
         <is>
-          <t>SM-G9350</t>
+          <t>BKK-AL00</t>
         </is>
       </c>
       <c r="D114" s="0" t="inlineStr">
         <is>
-          <t>samsung</t>
+          <t>HONOR</t>
         </is>
       </c>
       <c r="E114" s="0" t="inlineStr">
         <is>
-          <t>8.0.0</t>
+          <t>8.1.0</t>
         </is>
       </c>
       <c r="F114" s="0" t="inlineStr">
@@ -17374,12 +17382,12 @@
       </c>
       <c r="G114" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/247</t>
+          <t>http://118.25.173.30:9000/feedback/item/827</t>
         </is>
       </c>
       <c r="H114" s="0" t="inlineStr">
         <is>
-          <t>13127624426</t>
+          <t>13678978996</t>
         </is>
       </c>
       <c r="I114" s="0" t="inlineStr">
@@ -17389,14 +17397,14 @@
       </c>
       <c r="J114" s="0" t="inlineStr">
         <is>
-          <t>1.套利里，显示比价的都是1，没有小数区分，太不好看了。2. 划线下单希望能引入条件单逻辑。</t>
+          <t>登录密码错误超限，该如何操作？</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="0" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>828</t>
         </is>
       </c>
       <c r="B115" s="0" t="inlineStr">
@@ -17406,49 +17414,45 @@
       </c>
       <c r="C115" s="0" t="inlineStr">
         <is>
-          <t>iPhone 7 Plus</t>
+          <t>MI 5</t>
         </is>
       </c>
       <c r="D115" s="0" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>Xiaomi</t>
         </is>
       </c>
       <c r="E115" s="0" t="inlineStr">
         <is>
-          <t>12.3.1</t>
+          <t>8.0.0</t>
         </is>
       </c>
       <c r="F115" s="0" t="inlineStr">
         <is>
-          <t>2.1.33</t>
+          <t xml:space="preserve">2.1.44-000735 </t>
         </is>
       </c>
       <c r="G115" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/248</t>
-        </is>
-      </c>
-      <c r="H115" s="0" t="inlineStr">
-        <is>
-          <t>13811494001</t>
-        </is>
-      </c>
+          <t>http://118.25.173.30:9000/feedback/item/828</t>
+        </is>
+      </c>
+      <c r="H115" s="0" t="inlineStr"/>
       <c r="I115" s="0" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J115" s="0" t="inlineStr">
         <is>
-          <t>期货转银行为什么无法使用</t>
+          <t>为什么登录不了</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="0" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>829</t>
         </is>
       </c>
       <c r="B116" s="0" t="inlineStr">
@@ -17458,45 +17462,49 @@
       </c>
       <c r="C116" s="0" t="inlineStr">
         <is>
-          <t>BND-AL10</t>
+          <t>iPhone XS Max</t>
         </is>
       </c>
       <c r="D116" s="0" t="inlineStr">
         <is>
-          <t>HONOR</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="E116" s="0" t="inlineStr">
         <is>
-          <t>8.0.0</t>
+          <t>13.0</t>
         </is>
       </c>
       <c r="F116" s="0" t="inlineStr">
         <is>
-          <t>2.1.34</t>
+          <t xml:space="preserve">2.1.44-000735 </t>
         </is>
       </c>
       <c r="G116" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/249</t>
-        </is>
-      </c>
-      <c r="H116" s="0" t="inlineStr"/>
+          <t>http://118.25.173.30:9000/feedback/item/829</t>
+        </is>
+      </c>
+      <c r="H116" s="0" t="inlineStr">
+        <is>
+          <t>18126058779</t>
+        </is>
+      </c>
       <c r="I116" s="0" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="J116" s="0" t="inlineStr">
         <is>
-          <t>您好，可以出个K线图模式左右滑动切换合约的功能吗，谢谢！</t>
+          <t>撤单时闪退！！！！！</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="0" t="inlineStr">
         <is>
-          <t>250</t>
+          <t>830</t>
         </is>
       </c>
       <c r="B117" s="0" t="inlineStr">
@@ -17506,27 +17514,27 @@
       </c>
       <c r="C117" s="0" t="inlineStr">
         <is>
-          <t>DUB-AL20</t>
+          <t>SM-G9500</t>
         </is>
       </c>
       <c r="D117" s="0" t="inlineStr">
         <is>
-          <t>HUAWEI</t>
+          <t>samsung</t>
         </is>
       </c>
       <c r="E117" s="0" t="inlineStr">
         <is>
-          <t>8.1.0</t>
+          <t>8.0.0</t>
         </is>
       </c>
       <c r="F117" s="0" t="inlineStr">
         <is>
-          <t>2.1.34</t>
+          <t xml:space="preserve">2.1.42-000764 </t>
         </is>
       </c>
       <c r="G117" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/250</t>
+          <t>http://118.25.173.30:9000/feedback/item/830</t>
         </is>
       </c>
       <c r="H117" s="0" t="inlineStr"/>
@@ -17537,14 +17545,14 @@
       </c>
       <c r="J117" s="0" t="inlineStr">
         <is>
-          <t>问下一键反手功能在哪里？</t>
+          <t>卡</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="0" t="inlineStr">
         <is>
-          <t>251</t>
+          <t>831</t>
         </is>
       </c>
       <c r="B118" s="0" t="inlineStr">
@@ -17554,27 +17562,27 @@
       </c>
       <c r="C118" s="0" t="inlineStr">
         <is>
-          <t>LLD-AL00</t>
+          <t>iPhone 6</t>
         </is>
       </c>
       <c r="D118" s="0" t="inlineStr">
         <is>
-          <t>HONOR</t>
+          <t>Apple</t>
         </is>
       </c>
       <c r="E118" s="0" t="inlineStr">
         <is>
-          <t>8.0.0</t>
+          <t>12.3.1</t>
         </is>
       </c>
       <c r="F118" s="0" t="inlineStr">
         <is>
-          <t>2.1.33</t>
+          <t xml:space="preserve">2.1.44-000735 </t>
         </is>
       </c>
       <c r="G118" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/251</t>
+          <t>http://118.25.173.30:9000/feedback/item/831</t>
         </is>
       </c>
       <c r="H118" s="0" t="inlineStr"/>
@@ -17585,14 +17593,14 @@
       </c>
       <c r="J118" s="0" t="inlineStr">
         <is>
-          <t>为什么我止盈条件单触发后自动给我取消了？</t>
+          <t>用户名忘了，怎么找回</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="0" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>832</t>
         </is>
       </c>
       <c r="B119" s="0" t="inlineStr">
@@ -17602,45 +17610,45 @@
       </c>
       <c r="C119" s="0" t="inlineStr">
         <is>
-          <t>MI 6X</t>
+          <t>PACM00</t>
         </is>
       </c>
       <c r="D119" s="0" t="inlineStr">
         <is>
-          <t>xiaomi</t>
+          <t>OPPO</t>
         </is>
       </c>
       <c r="E119" s="0" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>8.1.0</t>
         </is>
       </c>
       <c r="F119" s="0" t="inlineStr">
         <is>
-          <t>2.1.34</t>
+          <t xml:space="preserve">2.1.42-000764 </t>
         </is>
       </c>
       <c r="G119" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/252</t>
+          <t>http://118.25.173.30:9000/feedback/item/832</t>
         </is>
       </c>
       <c r="H119" s="0" t="inlineStr"/>
       <c r="I119" s="0" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J119" s="0" t="inlineStr">
         <is>
-          <t>为什么触及止损位没有给我止损？害我多损失100多块？</t>
+          <t>忘记密码找回不了</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="0" t="inlineStr">
         <is>
-          <t>253</t>
+          <t>833</t>
         </is>
       </c>
       <c r="B120" s="0" t="inlineStr">
@@ -17650,27 +17658,27 @@
       </c>
       <c r="C120" s="0" t="inlineStr">
         <is>
-          <t>iPhone 6 Plus</t>
+          <t>M1822</t>
         </is>
       </c>
       <c r="D120" s="0" t="inlineStr">
         <is>
-          <t>Apple</t>
+          <t>Meizu</t>
         </is>
       </c>
       <c r="E120" s="0" t="inlineStr">
         <is>
-          <t>12.0.1</t>
+          <t>8.1.0</t>
         </is>
       </c>
       <c r="F120" s="0" t="inlineStr">
         <is>
-          <t>2.1.33</t>
+          <t xml:space="preserve">2.1.43-000735 </t>
         </is>
       </c>
       <c r="G120" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/253</t>
+          <t>http://118.25.173.30:9000/feedback/item/833</t>
         </is>
       </c>
       <c r="H120" s="0" t="inlineStr"/>
@@ -17681,24 +17689,24 @@
       </c>
       <c r="J120" s="0" t="inlineStr">
         <is>
-          <t>不可以设置昨日收盘价涨跌幅度</t>
+          <t>增加一个搜索框，能直接输代码或名字找到品种</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="0" t="inlineStr">
         <is>
-          <t>254</t>
+          <t>834</t>
         </is>
       </c>
       <c r="B121" s="0" t="inlineStr">
         <is>
-          <t>已处理</t>
+          <t>未处理</t>
         </is>
       </c>
       <c r="C121" s="0" t="inlineStr">
         <is>
-          <t>iPhone X</t>
+          <t>iPhone 7 Plus</t>
         </is>
       </c>
       <c r="D121" s="0" t="inlineStr">
@@ -17708,20 +17716,24 @@
       </c>
       <c r="E121" s="0" t="inlineStr">
         <is>
-          <t>12.3.1</t>
+          <t>12.0</t>
         </is>
       </c>
       <c r="F121" s="0" t="inlineStr">
         <is>
-          <t>2.1.33</t>
+          <t>2.1.35</t>
         </is>
       </c>
       <c r="G121" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/254</t>
-        </is>
-      </c>
-      <c r="H121" s="0" t="inlineStr"/>
+          <t>http://118.25.173.30:9000/feedback/item/834</t>
+        </is>
+      </c>
+      <c r="H121" s="0" t="inlineStr">
+        <is>
+          <t>18108144879</t>
+        </is>
+      </c>
       <c r="I121" s="0" t="inlineStr">
         <is>
           <t>False</t>
@@ -17729,14 +17741,14 @@
       </c>
       <c r="J121" s="0" t="inlineStr">
         <is>
-          <t>K线图表页面能否只看主图，关闭副图？ 甚至关闭交易量？ 不是所有人都需要那些指标，它们导致主图太小。谢谢。</t>
+          <t>为什么我在pc端使用的划线下单 但是在手机上查询不到</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="0" t="inlineStr">
         <is>
-          <t>255</t>
+          <t>835</t>
         </is>
       </c>
       <c r="B122" s="0" t="inlineStr">
@@ -17746,42 +17758,42 @@
       </c>
       <c r="C122" s="0" t="inlineStr">
         <is>
-          <t>HUAWEI NXT-AL10</t>
+          <t>PLK-TL01H</t>
         </is>
       </c>
       <c r="D122" s="0" t="inlineStr">
         <is>
-          <t>HUAWEI</t>
+          <t>HONOR</t>
         </is>
       </c>
       <c r="E122" s="0" t="inlineStr">
         <is>
-          <t>7.0</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="F122" s="0" t="inlineStr">
         <is>
-          <t>2.1.34</t>
+          <t xml:space="preserve">2.1.44-000735 </t>
         </is>
       </c>
       <c r="G122" s="0" t="inlineStr">
         <is>
-          <t>http://118.25.173.30:9000/feedback/item/255</t>
+          <t>http://118.25.173.30:9000/feedback/item/835</t>
         </is>
       </c>
       <c r="H122" s="0" t="inlineStr">
         <is>
-          <t>13163789149</t>
+          <t>13816908922</t>
         </is>
       </c>
       <c r="I122" s="0" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="J122" s="0" t="inlineStr">
         <is>
-          <t>帐号登录后,放在那,过几分钟后再打开界面,总是提示重新连接,这样反应速度慢不说,也不智能,随身行就是软件无论打开多久,在切换回来时,行情和交易盈亏都是最新的,望重点改善.</t>
+          <t>没有采集信息，不让登录。是怎么回事？</t>
         </is>
       </c>
     </row>
